--- a/res/media.xlsx
+++ b/res/media.xlsx
@@ -402,7 +402,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>2480</v>
+        <v>2473</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -425,22 +425,22 @@
         <v>2025</v>
       </c>
       <c r="B3">
-        <v>2435.87</v>
+        <v>2423.35859</v>
       </c>
       <c r="C3">
-        <v>24.71</v>
+        <v>27.04107</v>
       </c>
       <c r="D3">
-        <v>7.2</v>
+        <v>9.273199999999999</v>
       </c>
       <c r="E3">
-        <v>4.65</v>
+        <v>4.79174</v>
       </c>
       <c r="F3">
-        <v>4.11</v>
+        <v>4.17086</v>
       </c>
       <c r="G3">
-        <v>3.46</v>
+        <v>4.36454</v>
       </c>
     </row>
     <row r="4">
@@ -448,22 +448,22 @@
         <v>2026</v>
       </c>
       <c r="B4">
-        <v>2393.77</v>
+        <v>2376.25435</v>
       </c>
       <c r="C4">
-        <v>46.78</v>
+        <v>51.84612</v>
       </c>
       <c r="D4">
-        <v>14.69</v>
+        <v>17.98473</v>
       </c>
       <c r="E4">
-        <v>9.470000000000001</v>
+        <v>9.49347</v>
       </c>
       <c r="F4">
-        <v>8.130000000000001</v>
+        <v>8.28119</v>
       </c>
       <c r="G4">
-        <v>7.16</v>
+        <v>9.140140000000001</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
         <v>2027</v>
       </c>
       <c r="B5">
-        <v>2353.42</v>
+        <v>2331.1463</v>
       </c>
       <c r="C5">
-        <v>68.09999999999999</v>
+        <v>74.79187</v>
       </c>
       <c r="D5">
-        <v>21.37</v>
+        <v>26.20789</v>
       </c>
       <c r="E5">
-        <v>13.77</v>
+        <v>14.13953</v>
       </c>
       <c r="F5">
-        <v>12.11</v>
+        <v>12.36139</v>
       </c>
       <c r="G5">
-        <v>11.23</v>
+        <v>14.35302</v>
       </c>
     </row>
     <row r="6">
@@ -494,22 +494,22 @@
         <v>2028</v>
       </c>
       <c r="B6">
-        <v>2314.91</v>
+        <v>2287.59994</v>
       </c>
       <c r="C6">
-        <v>87.23999999999999</v>
+        <v>96.11261</v>
       </c>
       <c r="D6">
-        <v>27.88</v>
+        <v>34.05971</v>
       </c>
       <c r="E6">
-        <v>18.25</v>
+        <v>18.72358</v>
       </c>
       <c r="F6">
-        <v>16.27</v>
+        <v>16.42289</v>
       </c>
       <c r="G6">
-        <v>15.45</v>
+        <v>20.08127</v>
       </c>
     </row>
     <row r="7">
@@ -517,22 +517,22 @@
         <v>2029</v>
       </c>
       <c r="B7">
-        <v>2277.07</v>
+        <v>2245.27146</v>
       </c>
       <c r="C7">
-        <v>105.18</v>
+        <v>116.03956</v>
       </c>
       <c r="D7">
-        <v>33.9</v>
+        <v>41.60314</v>
       </c>
       <c r="E7">
-        <v>23.04</v>
+        <v>23.26234</v>
       </c>
       <c r="F7">
-        <v>20.61</v>
+        <v>20.48357</v>
       </c>
       <c r="G7">
-        <v>20.2</v>
+        <v>26.33993</v>
       </c>
     </row>
     <row r="8">
@@ -540,22 +540,22 @@
         <v>2030</v>
       </c>
       <c r="B8">
-        <v>2239.15</v>
+        <v>2203.7789</v>
       </c>
       <c r="C8">
-        <v>123.64</v>
+        <v>134.76781</v>
       </c>
       <c r="D8">
-        <v>40.24</v>
+        <v>48.92702</v>
       </c>
       <c r="E8">
-        <v>26.59</v>
+        <v>27.79741</v>
       </c>
       <c r="F8">
-        <v>24.89</v>
+        <v>24.53393</v>
       </c>
       <c r="G8">
-        <v>25.49</v>
+        <v>33.19493</v>
       </c>
     </row>
     <row r="9">
@@ -563,22 +563,22 @@
         <v>2031</v>
       </c>
       <c r="B9">
-        <v>2204.88</v>
+        <v>2162.77887</v>
       </c>
       <c r="C9">
-        <v>139.21</v>
+        <v>152.50818</v>
       </c>
       <c r="D9">
-        <v>46.05</v>
+        <v>56.08727</v>
       </c>
       <c r="E9">
-        <v>30.21</v>
+        <v>32.31322</v>
       </c>
       <c r="F9">
-        <v>29.05</v>
+        <v>28.61671</v>
       </c>
       <c r="G9">
-        <v>30.6</v>
+        <v>40.69575</v>
       </c>
     </row>
     <row r="10">
@@ -586,22 +586,22 @@
         <v>2032</v>
       </c>
       <c r="B10">
-        <v>2170.69</v>
+        <v>2122.03794</v>
       </c>
       <c r="C10">
-        <v>153.49</v>
+        <v>169.39914</v>
       </c>
       <c r="D10">
-        <v>51.92</v>
+        <v>63.10618</v>
       </c>
       <c r="E10">
-        <v>34.2</v>
+        <v>36.84243</v>
       </c>
       <c r="F10">
-        <v>33.12</v>
+        <v>32.7213</v>
       </c>
       <c r="G10">
-        <v>36.58</v>
+        <v>48.89301</v>
       </c>
     </row>
     <row r="11">
@@ -609,22 +609,22 @@
         <v>2033</v>
       </c>
       <c r="B11">
-        <v>2135.98</v>
+        <v>2081.35918</v>
       </c>
       <c r="C11">
-        <v>166.88</v>
+        <v>185.5381</v>
       </c>
       <c r="D11">
-        <v>58.48</v>
+        <v>69.97591</v>
       </c>
       <c r="E11">
-        <v>38.55</v>
+        <v>41.38524</v>
       </c>
       <c r="F11">
-        <v>36.98</v>
+        <v>36.85442</v>
       </c>
       <c r="G11">
-        <v>43.13</v>
+        <v>57.88715</v>
       </c>
     </row>
     <row r="12">
@@ -632,22 +632,22 @@
         <v>2034</v>
       </c>
       <c r="B12">
-        <v>2098.85</v>
+        <v>2040.44497</v>
       </c>
       <c r="C12">
-        <v>180.87</v>
+        <v>201.06703</v>
       </c>
       <c r="D12">
-        <v>64.09999999999999</v>
+        <v>76.78408</v>
       </c>
       <c r="E12">
-        <v>43.52</v>
+        <v>45.94698</v>
       </c>
       <c r="F12">
-        <v>41.69</v>
+        <v>41.04521</v>
       </c>
       <c r="G12">
-        <v>50.97</v>
+        <v>67.71173</v>
       </c>
     </row>
     <row r="13">
@@ -655,22 +655,22 @@
         <v>2035</v>
       </c>
       <c r="B13">
-        <v>2061.04</v>
+        <v>1999.29474</v>
       </c>
       <c r="C13">
-        <v>195.07</v>
+        <v>215.88408</v>
       </c>
       <c r="D13">
-        <v>70.64</v>
+        <v>83.53155</v>
       </c>
       <c r="E13">
-        <v>47.84</v>
+        <v>50.53386</v>
       </c>
       <c r="F13">
-        <v>46.27</v>
+        <v>45.28853</v>
       </c>
       <c r="G13">
-        <v>59.14</v>
+        <v>78.46724</v>
       </c>
     </row>
     <row r="14">
@@ -678,22 +678,22 @@
         <v>2036</v>
       </c>
       <c r="B14">
-        <v>2023.42</v>
+        <v>1957.72949</v>
       </c>
       <c r="C14">
-        <v>207.1</v>
+        <v>230.14341</v>
       </c>
       <c r="D14">
-        <v>77.55</v>
+        <v>90.19073</v>
       </c>
       <c r="E14">
-        <v>52.68</v>
+        <v>55.12497</v>
       </c>
       <c r="F14">
-        <v>50.65</v>
+        <v>49.58571</v>
       </c>
       <c r="G14">
-        <v>68.59999999999999</v>
+        <v>90.22569</v>
       </c>
     </row>
     <row r="15">
@@ -701,22 +701,22 @@
         <v>2037</v>
       </c>
       <c r="B15">
-        <v>1985.93</v>
+        <v>1915.73666</v>
       </c>
       <c r="C15">
-        <v>220.9</v>
+        <v>243.79671</v>
       </c>
       <c r="D15">
-        <v>82.12</v>
+        <v>96.78075</v>
       </c>
       <c r="E15">
-        <v>57.05</v>
+        <v>59.74325</v>
       </c>
       <c r="F15">
-        <v>55.22</v>
+        <v>53.89459</v>
       </c>
       <c r="G15">
-        <v>78.78</v>
+        <v>103.04804</v>
       </c>
     </row>
     <row r="16">
@@ -724,22 +724,22 @@
         <v>2038</v>
       </c>
       <c r="B16">
-        <v>1948.61</v>
+        <v>1873.07682</v>
       </c>
       <c r="C16">
-        <v>233.15</v>
+        <v>256.90119</v>
       </c>
       <c r="D16">
-        <v>87.25</v>
+        <v>103.28101</v>
       </c>
       <c r="E16">
-        <v>61.5</v>
+        <v>64.38657000000001</v>
       </c>
       <c r="F16">
-        <v>59.77</v>
+        <v>58.28508</v>
       </c>
       <c r="G16">
-        <v>89.72</v>
+        <v>117.06933</v>
       </c>
     </row>
     <row r="17">
@@ -747,22 +747,22 @@
         <v>2039</v>
       </c>
       <c r="B17">
-        <v>1909.02</v>
+        <v>1829.62689</v>
       </c>
       <c r="C17">
-        <v>245.52</v>
+        <v>269.48301</v>
       </c>
       <c r="D17">
-        <v>92.73999999999999</v>
+        <v>109.74715</v>
       </c>
       <c r="E17">
-        <v>66.39</v>
+        <v>69.02844</v>
       </c>
       <c r="F17">
-        <v>64.58</v>
+        <v>62.7435</v>
       </c>
       <c r="G17">
-        <v>101.75</v>
+        <v>132.37101</v>
       </c>
     </row>
     <row r="18">
@@ -770,22 +770,22 @@
         <v>2040</v>
       </c>
       <c r="B18">
-        <v>1867.71</v>
+        <v>1785.32406</v>
       </c>
       <c r="C18">
-        <v>257.65</v>
+        <v>281.49157</v>
       </c>
       <c r="D18">
-        <v>99.13</v>
+        <v>116.12176</v>
       </c>
       <c r="E18">
-        <v>71.86</v>
+        <v>73.69495000000001</v>
       </c>
       <c r="F18">
-        <v>69.51000000000001</v>
+        <v>67.27709</v>
       </c>
       <c r="G18">
-        <v>114.14</v>
+        <v>149.09057</v>
       </c>
     </row>
     <row r="19">
@@ -793,22 +793,22 @@
         <v>2041</v>
       </c>
       <c r="B19">
-        <v>1827.07</v>
+        <v>1739.82416</v>
       </c>
       <c r="C19">
-        <v>268.7</v>
+        <v>293.07394</v>
       </c>
       <c r="D19">
-        <v>105.07</v>
+        <v>122.46048</v>
       </c>
       <c r="E19">
-        <v>76.70999999999999</v>
+        <v>78.41357000000001</v>
       </c>
       <c r="F19">
-        <v>74.48</v>
+        <v>71.89888999999999</v>
       </c>
       <c r="G19">
-        <v>127.97</v>
+        <v>167.32896</v>
       </c>
     </row>
     <row r="20">
@@ -816,22 +816,22 @@
         <v>2042</v>
       </c>
       <c r="B20">
-        <v>1782.4</v>
+        <v>1693.20427</v>
       </c>
       <c r="C20">
-        <v>280.14</v>
+        <v>304.01688</v>
       </c>
       <c r="D20">
-        <v>112.08</v>
+        <v>128.78712</v>
       </c>
       <c r="E20">
-        <v>81.31</v>
+        <v>83.12985999999999</v>
       </c>
       <c r="F20">
-        <v>80.06999999999999</v>
+        <v>76.65102</v>
       </c>
       <c r="G20">
-        <v>144</v>
+        <v>187.21085</v>
       </c>
     </row>
     <row r="21">
@@ -839,22 +839,22 @@
         <v>2043</v>
       </c>
       <c r="B21">
-        <v>1739.12</v>
+        <v>1645.29147</v>
       </c>
       <c r="C21">
-        <v>290.34</v>
+        <v>314.37032</v>
       </c>
       <c r="D21">
-        <v>117.03</v>
+        <v>134.98288</v>
       </c>
       <c r="E21">
-        <v>86.91</v>
+        <v>87.95685</v>
       </c>
       <c r="F21">
-        <v>86.28</v>
+        <v>81.54680999999999</v>
       </c>
       <c r="G21">
-        <v>160.32</v>
+        <v>208.85167</v>
       </c>
     </row>
     <row r="22">
@@ -862,22 +862,22 @@
         <v>2044</v>
       </c>
       <c r="B22">
-        <v>1693.5</v>
+        <v>1595.94198</v>
       </c>
       <c r="C22">
-        <v>299.15</v>
+        <v>324.08872</v>
       </c>
       <c r="D22">
-        <v>123.29</v>
+        <v>141.11454</v>
       </c>
       <c r="E22">
-        <v>92.25</v>
+        <v>92.80468</v>
       </c>
       <c r="F22">
-        <v>92.52</v>
+        <v>86.60383</v>
       </c>
       <c r="G22">
-        <v>179.29</v>
+        <v>232.44625</v>
       </c>
     </row>
     <row r="23">
@@ -885,22 +885,22 @@
         <v>2045</v>
       </c>
       <c r="B23">
-        <v>1645.72</v>
+        <v>1545.14136</v>
       </c>
       <c r="C23">
-        <v>309.15</v>
+        <v>333.05424</v>
       </c>
       <c r="D23">
-        <v>128.56</v>
+        <v>147.13877</v>
       </c>
       <c r="E23">
-        <v>98.53</v>
+        <v>97.71062999999999</v>
       </c>
       <c r="F23">
-        <v>99.15000000000001</v>
+        <v>91.83005</v>
       </c>
       <c r="G23">
-        <v>198.89</v>
+        <v>258.12495</v>
       </c>
     </row>
     <row r="24">
@@ -908,22 +908,22 @@
         <v>2046</v>
       </c>
       <c r="B24">
-        <v>1596.64</v>
+        <v>1492.68177</v>
       </c>
       <c r="C24">
-        <v>317.58</v>
+        <v>341.25706</v>
       </c>
       <c r="D24">
-        <v>134.46</v>
+        <v>153.09599</v>
       </c>
       <c r="E24">
-        <v>104.63</v>
+        <v>102.6478</v>
       </c>
       <c r="F24">
-        <v>106.39</v>
+        <v>97.28988</v>
       </c>
       <c r="G24">
-        <v>220.3</v>
+        <v>286.0275</v>
       </c>
     </row>
     <row r="25">
@@ -931,22 +931,22 @@
         <v>2047</v>
       </c>
       <c r="B25">
-        <v>1544.12</v>
+        <v>1438.39189</v>
       </c>
       <c r="C25">
-        <v>324.97</v>
+        <v>348.60703</v>
       </c>
       <c r="D25">
-        <v>140.09</v>
+        <v>158.92038</v>
       </c>
       <c r="E25">
-        <v>111.12</v>
+        <v>107.6525</v>
       </c>
       <c r="F25">
-        <v>114.63</v>
+        <v>103.06927</v>
       </c>
       <c r="G25">
-        <v>245.07</v>
+        <v>316.35893</v>
       </c>
     </row>
     <row r="26">
@@ -954,22 +954,22 @@
         <v>2048</v>
       </c>
       <c r="B26">
-        <v>1490.48</v>
+        <v>1382.26338</v>
       </c>
       <c r="C26">
-        <v>332.65</v>
+        <v>354.96294</v>
       </c>
       <c r="D26">
-        <v>144.93</v>
+        <v>164.58829</v>
       </c>
       <c r="E26">
-        <v>116.48</v>
+        <v>112.7283</v>
       </c>
       <c r="F26">
-        <v>124.49</v>
+        <v>109.15575</v>
       </c>
       <c r="G26">
-        <v>270.97</v>
+        <v>349.30134</v>
       </c>
     </row>
     <row r="27">
@@ -977,22 +977,22 @@
         <v>2049</v>
       </c>
       <c r="B27">
-        <v>1433.68</v>
+        <v>1324.21433</v>
       </c>
       <c r="C27">
-        <v>338.41</v>
+        <v>360.19793</v>
       </c>
       <c r="D27">
-        <v>149.86</v>
+        <v>170.09663</v>
       </c>
       <c r="E27">
-        <v>122.86</v>
+        <v>117.8615</v>
       </c>
       <c r="F27">
-        <v>135.59</v>
+        <v>115.59713</v>
       </c>
       <c r="G27">
-        <v>299.6</v>
+        <v>385.03248</v>
       </c>
     </row>
     <row r="28">
@@ -1000,22 +1000,22 @@
         <v>2050</v>
       </c>
       <c r="B28">
-        <v>1374.29</v>
+        <v>1264.19034</v>
       </c>
       <c r="C28">
-        <v>344.21</v>
+        <v>364.31248</v>
       </c>
       <c r="D28">
-        <v>155.17</v>
+        <v>175.31321</v>
       </c>
       <c r="E28">
-        <v>129.21</v>
+        <v>123.0178</v>
       </c>
       <c r="F28">
-        <v>146.31</v>
+        <v>122.47587</v>
       </c>
       <c r="G28">
-        <v>330.81</v>
+        <v>423.6903</v>
       </c>
     </row>
     <row r="29">
@@ -1023,22 +1023,22 @@
         <v>2051</v>
       </c>
       <c r="B29">
-        <v>1311.92</v>
+        <v>1202.33202</v>
       </c>
       <c r="C29">
-        <v>349.8</v>
+        <v>367.08323</v>
       </c>
       <c r="D29">
-        <v>159.73</v>
+        <v>180.199</v>
       </c>
       <c r="E29">
-        <v>135.09</v>
+        <v>128.19477</v>
       </c>
       <c r="F29">
-        <v>158.95</v>
+        <v>129.78631</v>
       </c>
       <c r="G29">
-        <v>364.51</v>
+        <v>465.40467</v>
       </c>
     </row>
     <row r="30">
@@ -1046,22 +1046,22 @@
         <v>2052</v>
       </c>
       <c r="B30">
-        <v>1249.09</v>
+        <v>1138.75089</v>
       </c>
       <c r="C30">
-        <v>351.29</v>
+        <v>368.32474</v>
       </c>
       <c r="D30">
-        <v>164.36</v>
+        <v>184.65069</v>
       </c>
       <c r="E30">
-        <v>142.73</v>
+        <v>133.29081</v>
       </c>
       <c r="F30">
-        <v>170.58</v>
+        <v>137.57653</v>
       </c>
       <c r="G30">
-        <v>401.95</v>
+        <v>510.40634</v>
       </c>
     </row>
     <row r="31">
@@ -1069,22 +1069,22 @@
         <v>2053</v>
       </c>
       <c r="B31">
-        <v>1181.65</v>
+        <v>1073.67715</v>
       </c>
       <c r="C31">
-        <v>352.4</v>
+        <v>367.93915</v>
       </c>
       <c r="D31">
-        <v>169.3</v>
+        <v>188.44809</v>
       </c>
       <c r="E31">
-        <v>148.35</v>
+        <v>138.30451</v>
       </c>
       <c r="F31">
-        <v>185.46</v>
+        <v>145.84952</v>
       </c>
       <c r="G31">
-        <v>442.84</v>
+        <v>558.78158</v>
       </c>
     </row>
     <row r="32">
@@ -1092,22 +1092,22 @@
         <v>2054</v>
       </c>
       <c r="B32">
-        <v>1112.78</v>
+        <v>1007.35601</v>
       </c>
       <c r="C32">
-        <v>351.95</v>
+        <v>365.71826</v>
       </c>
       <c r="D32">
-        <v>173.02</v>
+        <v>191.56487</v>
       </c>
       <c r="E32">
-        <v>154.1</v>
+        <v>143.10208</v>
       </c>
       <c r="F32">
-        <v>200.84</v>
+        <v>154.59471</v>
       </c>
       <c r="G32">
-        <v>487.31</v>
+        <v>610.66407</v>
       </c>
     </row>
     <row r="33">
@@ -1115,22 +1115,22 @@
         <v>2055</v>
       </c>
       <c r="B33">
-        <v>1041.86</v>
+        <v>940.19402</v>
       </c>
       <c r="C33">
-        <v>350.22</v>
+        <v>361.57327</v>
       </c>
       <c r="D33">
-        <v>174.76</v>
+        <v>193.82794</v>
       </c>
       <c r="E33">
-        <v>160.39</v>
+        <v>147.5788</v>
       </c>
       <c r="F33">
-        <v>217.74</v>
+        <v>163.76084</v>
       </c>
       <c r="G33">
-        <v>535.03</v>
+        <v>666.06513</v>
       </c>
     </row>
     <row r="34">
@@ -1138,22 +1138,22 @@
         <v>2056</v>
       </c>
       <c r="B34">
-        <v>973.45</v>
+        <v>872.64822</v>
       </c>
       <c r="C34">
-        <v>342.73</v>
+        <v>355.44199</v>
       </c>
       <c r="D34">
-        <v>176.79</v>
+        <v>195.11235</v>
       </c>
       <c r="E34">
-        <v>165.18</v>
+        <v>151.53922</v>
       </c>
       <c r="F34">
-        <v>233.6</v>
+        <v>173.2728</v>
       </c>
       <c r="G34">
-        <v>588.25</v>
+        <v>724.98542</v>
       </c>
     </row>
     <row r="35">
@@ -1161,22 +1161,22 @@
         <v>2057</v>
       </c>
       <c r="B35">
-        <v>902.72</v>
+        <v>805.24706</v>
       </c>
       <c r="C35">
-        <v>335.1</v>
+        <v>347.11143</v>
       </c>
       <c r="D35">
-        <v>178.05</v>
+        <v>195.31538</v>
       </c>
       <c r="E35">
-        <v>168.97</v>
+        <v>154.91343</v>
       </c>
       <c r="F35">
-        <v>249.36</v>
+        <v>182.94379</v>
       </c>
       <c r="G35">
-        <v>645.8</v>
+        <v>787.4689100000001</v>
       </c>
     </row>
     <row r="36">
@@ -1184,22 +1184,22 @@
         <v>2058</v>
       </c>
       <c r="B36">
-        <v>832.5700000000001</v>
+        <v>738.55612</v>
       </c>
       <c r="C36">
-        <v>326.32</v>
+        <v>336.68274</v>
       </c>
       <c r="D36">
-        <v>176.23</v>
+        <v>194.25314</v>
       </c>
       <c r="E36">
-        <v>171.67</v>
+        <v>157.57824</v>
       </c>
       <c r="F36">
-        <v>268.02</v>
+        <v>192.64223</v>
       </c>
       <c r="G36">
-        <v>705.1900000000001</v>
+        <v>853.2875299999999</v>
       </c>
     </row>
     <row r="37">
@@ -1207,22 +1207,22 @@
         <v>2059</v>
       </c>
       <c r="B37">
-        <v>763.47</v>
+        <v>673.0793200000001</v>
       </c>
       <c r="C37">
-        <v>313.89</v>
+        <v>324.10264</v>
       </c>
       <c r="D37">
-        <v>174.22</v>
+        <v>191.90046</v>
       </c>
       <c r="E37">
-        <v>172.99</v>
+        <v>159.44041</v>
       </c>
       <c r="F37">
-        <v>285.25</v>
+        <v>202.0491</v>
       </c>
       <c r="G37">
-        <v>770.1799999999999</v>
+        <v>922.42807</v>
       </c>
     </row>
     <row r="38">
@@ -1230,22 +1230,22 @@
         <v>2060</v>
       </c>
       <c r="B38">
-        <v>695.6799999999999</v>
+        <v>609.36315</v>
       </c>
       <c r="C38">
-        <v>299.44</v>
+        <v>309.50154</v>
       </c>
       <c r="D38">
-        <v>168.83</v>
+        <v>188.23265</v>
       </c>
       <c r="E38">
-        <v>174.39</v>
+        <v>160.28912</v>
       </c>
       <c r="F38">
-        <v>303.79</v>
+        <v>211.10068</v>
       </c>
       <c r="G38">
-        <v>837.87</v>
+        <v>994.51286</v>
       </c>
     </row>
     <row r="39">
@@ -1253,22 +1253,22 @@
         <v>2061</v>
       </c>
       <c r="B39">
-        <v>627.45</v>
+        <v>547.94226</v>
       </c>
       <c r="C39">
-        <v>284.53</v>
+        <v>293.0913</v>
       </c>
       <c r="D39">
-        <v>164.7</v>
+        <v>183.09053</v>
       </c>
       <c r="E39">
-        <v>175.63</v>
+        <v>160.14734</v>
       </c>
       <c r="F39">
-        <v>319.43</v>
+        <v>219.41853</v>
       </c>
       <c r="G39">
-        <v>908.26</v>
+        <v>1069.31004</v>
       </c>
     </row>
     <row r="40">
@@ -1276,22 +1276,22 @@
         <v>2062</v>
       </c>
       <c r="B40">
-        <v>565.0599999999999</v>
+        <v>489.18825</v>
       </c>
       <c r="C40">
-        <v>263.95</v>
+        <v>275.1424</v>
       </c>
       <c r="D40">
-        <v>159.7</v>
+        <v>176.61898</v>
       </c>
       <c r="E40">
-        <v>174.77</v>
+        <v>158.86481</v>
       </c>
       <c r="F40">
-        <v>334.22</v>
+        <v>226.82013</v>
       </c>
       <c r="G40">
-        <v>982.3</v>
+        <v>1146.36543</v>
       </c>
     </row>
     <row r="41">
@@ -1299,22 +1299,22 @@
         <v>2063</v>
       </c>
       <c r="B41">
-        <v>502.93</v>
+        <v>433.56479</v>
       </c>
       <c r="C41">
-        <v>245.66</v>
+        <v>255.81359</v>
       </c>
       <c r="D41">
-        <v>154.42</v>
+        <v>168.90404</v>
       </c>
       <c r="E41">
-        <v>170.49</v>
+        <v>156.40727</v>
       </c>
       <c r="F41">
-        <v>347.84</v>
+        <v>233.07675</v>
       </c>
       <c r="G41">
-        <v>1058.66</v>
+        <v>1225.23356</v>
       </c>
     </row>
     <row r="42">
@@ -1322,22 +1322,22 @@
         <v>2064</v>
       </c>
       <c r="B42">
-        <v>442.23</v>
+        <v>381.31979</v>
       </c>
       <c r="C42">
-        <v>226.62</v>
+        <v>235.57397</v>
       </c>
       <c r="D42">
-        <v>145.08</v>
+        <v>160.04796</v>
       </c>
       <c r="E42">
-        <v>168.11</v>
+        <v>152.74795</v>
       </c>
       <c r="F42">
-        <v>359.4</v>
+        <v>237.96423</v>
       </c>
       <c r="G42">
-        <v>1138.56</v>
+        <v>1305.3461</v>
       </c>
     </row>
     <row r="43">
@@ -1345,22 +1345,22 @@
         <v>2065</v>
       </c>
       <c r="B43">
-        <v>387.67</v>
+        <v>332.68328</v>
       </c>
       <c r="C43">
-        <v>206.82</v>
+        <v>214.85491</v>
       </c>
       <c r="D43">
-        <v>135.63</v>
+        <v>150.24</v>
       </c>
       <c r="E43">
-        <v>163.83</v>
+        <v>147.89357</v>
       </c>
       <c r="F43">
-        <v>365.33</v>
+        <v>241.09799</v>
       </c>
       <c r="G43">
-        <v>1220.72</v>
+        <v>1386.23025</v>
       </c>
     </row>
     <row r="44">
@@ -1368,22 +1368,22 @@
         <v>2066</v>
       </c>
       <c r="B44">
-        <v>336.33</v>
+        <v>287.88967</v>
       </c>
       <c r="C44">
-        <v>186.06</v>
+        <v>193.9452</v>
       </c>
       <c r="D44">
-        <v>125.65</v>
+        <v>139.6169</v>
       </c>
       <c r="E44">
-        <v>157.41</v>
+        <v>141.97107</v>
       </c>
       <c r="F44">
-        <v>370.28</v>
+        <v>242.46943</v>
       </c>
       <c r="G44">
-        <v>1304.27</v>
+        <v>1467.10773</v>
       </c>
     </row>
     <row r="45">
@@ -1391,22 +1391,22 @@
         <v>2067</v>
       </c>
       <c r="B45">
-        <v>289.06</v>
+        <v>246.9456</v>
       </c>
       <c r="C45">
-        <v>165.51</v>
+        <v>173.21768</v>
       </c>
       <c r="D45">
-        <v>115.41</v>
+        <v>128.43213</v>
       </c>
       <c r="E45">
-        <v>149.7</v>
+        <v>135.06399</v>
       </c>
       <c r="F45">
-        <v>372.02</v>
+        <v>241.91259</v>
       </c>
       <c r="G45">
-        <v>1388.3</v>
+        <v>1547.42801</v>
       </c>
     </row>
     <row r="46">
@@ -1414,22 +1414,22 @@
         <v>2068</v>
       </c>
       <c r="B46">
-        <v>248.05</v>
+        <v>209.99461</v>
       </c>
       <c r="C46">
-        <v>146.22</v>
+        <v>153.01165</v>
       </c>
       <c r="D46">
-        <v>104.74</v>
+        <v>116.91961</v>
       </c>
       <c r="E46">
-        <v>139.85</v>
+        <v>127.29299</v>
       </c>
       <c r="F46">
-        <v>368.63</v>
+        <v>239.24381</v>
       </c>
       <c r="G46">
-        <v>1472.51</v>
+        <v>1626.53733</v>
       </c>
     </row>
     <row r="47">
@@ -1437,22 +1437,22 @@
         <v>2069</v>
       </c>
       <c r="B47">
-        <v>209.29</v>
+        <v>176.88999</v>
       </c>
       <c r="C47">
-        <v>128.63</v>
+        <v>133.77684</v>
       </c>
       <c r="D47">
-        <v>93.05</v>
+        <v>105.29025</v>
       </c>
       <c r="E47">
-        <v>130.53</v>
+        <v>118.77063</v>
       </c>
       <c r="F47">
-        <v>361.48</v>
+        <v>234.48947</v>
       </c>
       <c r="G47">
-        <v>1557.02</v>
+        <v>1703.78282</v>
       </c>
     </row>
     <row r="48">
@@ -1460,22 +1460,22 @@
         <v>2070</v>
       </c>
       <c r="B48">
-        <v>174.67</v>
+        <v>147.67393</v>
       </c>
       <c r="C48">
-        <v>110.59</v>
+        <v>115.57569</v>
       </c>
       <c r="D48">
-        <v>83.09999999999999</v>
+        <v>93.82742</v>
       </c>
       <c r="E48">
-        <v>120.12</v>
+        <v>109.72481</v>
       </c>
       <c r="F48">
-        <v>351.93</v>
+        <v>227.64088</v>
       </c>
       <c r="G48">
-        <v>1639.59</v>
+        <v>1778.55727</v>
       </c>
     </row>
     <row r="49">
@@ -1483,22 +1483,22 @@
         <v>2071</v>
       </c>
       <c r="B49">
-        <v>145.39</v>
+        <v>122.1154</v>
       </c>
       <c r="C49">
-        <v>94.42</v>
+        <v>98.77139</v>
       </c>
       <c r="D49">
-        <v>74.23999999999999</v>
+        <v>82.68464</v>
       </c>
       <c r="E49">
-        <v>110.12</v>
+        <v>100.36363</v>
       </c>
       <c r="F49">
-        <v>336.4</v>
+        <v>218.84001</v>
       </c>
       <c r="G49">
-        <v>1719.43</v>
+        <v>1850.22493</v>
       </c>
     </row>
     <row r="50">
@@ -1506,22 +1506,22 @@
         <v>2072</v>
       </c>
       <c r="B50">
-        <v>120.01</v>
+        <v>99.98654999999999</v>
       </c>
       <c r="C50">
-        <v>79</v>
+        <v>83.41767</v>
       </c>
       <c r="D50">
-        <v>65.62</v>
+        <v>72.03906000000001</v>
       </c>
       <c r="E50">
-        <v>97.84999999999999</v>
+        <v>90.91745</v>
       </c>
       <c r="F50">
-        <v>320.57</v>
+        <v>208.25232</v>
       </c>
       <c r="G50">
-        <v>1796.95</v>
+        <v>1918.38695</v>
       </c>
     </row>
     <row r="51">
@@ -1529,22 +1529,22 @@
         <v>2073</v>
       </c>
       <c r="B51">
-        <v>96.62</v>
+        <v>81.03792</v>
       </c>
       <c r="C51">
-        <v>67.52</v>
+        <v>69.62723</v>
       </c>
       <c r="D51">
-        <v>54.97</v>
+        <v>62.13901</v>
       </c>
       <c r="E51">
-        <v>88.20999999999999</v>
+        <v>81.47095</v>
       </c>
       <c r="F51">
-        <v>301.22</v>
+        <v>196.1556</v>
       </c>
       <c r="G51">
-        <v>1871.46</v>
+        <v>1982.56929</v>
       </c>
     </row>
     <row r="52">
@@ -1552,22 +1552,22 @@
         <v>2074</v>
       </c>
       <c r="B52">
-        <v>78.11</v>
+        <v>64.99062000000001</v>
       </c>
       <c r="C52">
-        <v>54.83</v>
+        <v>57.46055</v>
       </c>
       <c r="D52">
-        <v>48.03</v>
+        <v>52.96274</v>
       </c>
       <c r="E52">
-        <v>78.15000000000001</v>
+        <v>72.27145</v>
       </c>
       <c r="F52">
-        <v>280.19</v>
+        <v>182.86167</v>
       </c>
       <c r="G52">
-        <v>1940.69</v>
+        <v>2042.45297</v>
       </c>
     </row>
     <row r="53">
@@ -1575,22 +1575,22 @@
         <v>2075</v>
       </c>
       <c r="B53">
-        <v>61.75</v>
+        <v>51.5824</v>
       </c>
       <c r="C53">
-        <v>44.68</v>
+        <v>46.87349</v>
       </c>
       <c r="D53">
-        <v>39.77</v>
+        <v>44.65937</v>
       </c>
       <c r="E53">
-        <v>69.20999999999999</v>
+        <v>63.46317</v>
       </c>
       <c r="F53">
-        <v>258.72</v>
+        <v>168.6312</v>
       </c>
       <c r="G53">
-        <v>2005.87</v>
+        <v>2097.79037</v>
       </c>
     </row>
     <row r="54">
@@ -1598,22 +1598,22 @@
         <v>2076</v>
       </c>
       <c r="B54">
-        <v>47.82</v>
+        <v>40.49773</v>
       </c>
       <c r="C54">
-        <v>35.93</v>
+        <v>37.78403</v>
       </c>
       <c r="D54">
-        <v>33.61</v>
+        <v>37.22281</v>
       </c>
       <c r="E54">
-        <v>59.47</v>
+        <v>55.13391</v>
       </c>
       <c r="F54">
-        <v>237.39</v>
+        <v>153.9221</v>
       </c>
       <c r="G54">
-        <v>2065.78</v>
+        <v>2148.43942</v>
       </c>
     </row>
     <row r="55">
@@ -1621,22 +1621,22 @@
         <v>2077</v>
       </c>
       <c r="B55">
-        <v>37.49</v>
+        <v>31.40563</v>
       </c>
       <c r="C55">
-        <v>28.45</v>
+        <v>30.11753</v>
       </c>
       <c r="D55">
-        <v>28.02</v>
+        <v>30.69062</v>
       </c>
       <c r="E55">
-        <v>50.68</v>
+        <v>47.38792</v>
       </c>
       <c r="F55">
-        <v>215.13</v>
+        <v>139.01209</v>
       </c>
       <c r="G55">
-        <v>2120.23</v>
+        <v>2194.38621</v>
       </c>
     </row>
     <row r="56">
@@ -1644,22 +1644,22 @@
         <v>2078</v>
       </c>
       <c r="B56">
-        <v>28.49</v>
+        <v>24.10064</v>
       </c>
       <c r="C56">
-        <v>22.23</v>
+        <v>23.68613</v>
       </c>
       <c r="D56">
-        <v>22.45</v>
+        <v>25.04301</v>
       </c>
       <c r="E56">
-        <v>43.27</v>
+        <v>40.32913</v>
       </c>
       <c r="F56">
-        <v>191.96</v>
+        <v>124.17926</v>
       </c>
       <c r="G56">
-        <v>2171.6</v>
+        <v>2235.66183</v>
       </c>
     </row>
     <row r="57">
@@ -1667,22 +1667,22 @@
         <v>2079</v>
       </c>
       <c r="B57">
-        <v>21.34</v>
+        <v>18.24941</v>
       </c>
       <c r="C57">
-        <v>17.06</v>
+        <v>18.40385</v>
       </c>
       <c r="D57">
-        <v>18.3</v>
+        <v>20.1812</v>
       </c>
       <c r="E57">
-        <v>35.86</v>
+        <v>33.99905</v>
       </c>
       <c r="F57">
-        <v>170.4</v>
+        <v>109.76918</v>
       </c>
       <c r="G57">
-        <v>2217.04</v>
+        <v>2272.39731</v>
       </c>
     </row>
     <row r="58">
@@ -1690,22 +1690,22 @@
         <v>2080</v>
       </c>
       <c r="B58">
-        <v>16.12</v>
+        <v>13.64518</v>
       </c>
       <c r="C58">
-        <v>12.79</v>
+        <v>14.13814</v>
       </c>
       <c r="D58">
-        <v>14.48</v>
+        <v>16.07363</v>
       </c>
       <c r="E58">
-        <v>30.39</v>
+        <v>28.37002</v>
       </c>
       <c r="F58">
-        <v>148.14</v>
+        <v>95.99621999999999</v>
       </c>
       <c r="G58">
-        <v>2258.08</v>
+        <v>2304.77681</v>
       </c>
     </row>
     <row r="59">
@@ -1713,22 +1713,22 @@
         <v>2081</v>
       </c>
       <c r="B59">
-        <v>11.8</v>
+        <v>10.06032</v>
       </c>
       <c r="C59">
-        <v>9.710000000000001</v>
+        <v>10.71754</v>
       </c>
       <c r="D59">
-        <v>11.55</v>
+        <v>12.6622</v>
       </c>
       <c r="E59">
-        <v>24.94</v>
+        <v>23.44338</v>
       </c>
       <c r="F59">
-        <v>127.87</v>
+        <v>83.05628</v>
       </c>
       <c r="G59">
-        <v>2294.13</v>
+        <v>2333.06028</v>
       </c>
     </row>
     <row r="60">
@@ -1736,22 +1736,22 @@
         <v>2082</v>
       </c>
       <c r="B60">
-        <v>8.550000000000001</v>
+        <v>7.32841</v>
       </c>
       <c r="C60">
-        <v>7.18</v>
+        <v>8.006209999999999</v>
       </c>
       <c r="D60">
-        <v>8.720000000000001</v>
+        <v>9.87021</v>
       </c>
       <c r="E60">
-        <v>20.63</v>
+        <v>19.15562</v>
       </c>
       <c r="F60">
-        <v>109.38</v>
+        <v>71.11756</v>
       </c>
       <c r="G60">
-        <v>2325.54</v>
+        <v>2357.52199</v>
       </c>
     </row>
     <row r="61">
@@ -1759,22 +1759,22 @@
         <v>2083</v>
       </c>
       <c r="B61">
-        <v>6.02</v>
+        <v>5.26734</v>
       </c>
       <c r="C61">
-        <v>5.34</v>
+        <v>5.92565</v>
       </c>
       <c r="D61">
-        <v>6.57</v>
+        <v>7.59825</v>
       </c>
       <c r="E61">
-        <v>16.77</v>
+        <v>15.49211</v>
       </c>
       <c r="F61">
-        <v>91.58</v>
+        <v>60.20558</v>
       </c>
       <c r="G61">
-        <v>2353.72</v>
+        <v>2378.51107</v>
       </c>
     </row>
     <row r="62">
@@ -1782,22 +1782,22 @@
         <v>2084</v>
       </c>
       <c r="B62">
-        <v>4.25</v>
+        <v>3.73813</v>
       </c>
       <c r="C62">
-        <v>3.84</v>
+        <v>4.33047</v>
       </c>
       <c r="D62">
-        <v>4.89</v>
+        <v>5.79173</v>
       </c>
       <c r="E62">
-        <v>13.26</v>
+        <v>12.39445</v>
       </c>
       <c r="F62">
-        <v>76.79000000000001</v>
+        <v>50.42352</v>
       </c>
       <c r="G62">
-        <v>2376.97</v>
+        <v>2396.3217</v>
       </c>
     </row>
     <row r="63">
@@ -1805,22 +1805,22 @@
         <v>2085</v>
       </c>
       <c r="B63">
-        <v>2.75</v>
+        <v>2.61872</v>
       </c>
       <c r="C63">
-        <v>2.95</v>
+        <v>3.12491</v>
       </c>
       <c r="D63">
-        <v>3.8</v>
+        <v>4.37646</v>
       </c>
       <c r="E63">
-        <v>10.17</v>
+        <v>9.82422</v>
       </c>
       <c r="F63">
-        <v>63.21</v>
+        <v>41.75822</v>
       </c>
       <c r="G63">
-        <v>2397.12</v>
+        <v>2411.29747</v>
       </c>
     </row>
     <row r="64">
@@ -1828,22 +1828,22 @@
         <v>2086</v>
       </c>
       <c r="B64">
-        <v>1.92</v>
+        <v>1.8069</v>
       </c>
       <c r="C64">
-        <v>2.07</v>
+        <v>2.2338</v>
       </c>
       <c r="D64">
-        <v>2.7</v>
+        <v>3.2733</v>
       </c>
       <c r="E64">
-        <v>7.95</v>
+        <v>7.70471</v>
       </c>
       <c r="F64">
-        <v>52.57</v>
+        <v>34.20135</v>
       </c>
       <c r="G64">
-        <v>2412.79</v>
+        <v>2423.77994</v>
       </c>
     </row>
     <row r="65">
@@ -1851,22 +1851,22 @@
         <v>2087</v>
       </c>
       <c r="B65">
-        <v>1.19</v>
+        <v>1.2372</v>
       </c>
       <c r="C65">
-        <v>1.4</v>
+        <v>1.5826</v>
       </c>
       <c r="D65">
-        <v>2.13</v>
+        <v>2.42484</v>
       </c>
       <c r="E65">
-        <v>6.4</v>
+        <v>5.99908</v>
       </c>
       <c r="F65">
-        <v>42.12</v>
+        <v>27.67682</v>
       </c>
       <c r="G65">
-        <v>2426.76</v>
+        <v>2434.07946</v>
       </c>
     </row>
     <row r="66">
@@ -1874,22 +1874,22 @@
         <v>2088</v>
       </c>
       <c r="B66">
-        <v>0.7</v>
+        <v>0.82962</v>
       </c>
       <c r="C66">
-        <v>0.99</v>
+        <v>1.10977</v>
       </c>
       <c r="D66">
-        <v>1.48</v>
+        <v>1.78397</v>
       </c>
       <c r="E66">
-        <v>5.04</v>
+        <v>4.62811</v>
       </c>
       <c r="F66">
-        <v>33.64</v>
+        <v>22.17004</v>
       </c>
       <c r="G66">
-        <v>2438.15</v>
+        <v>2442.47849</v>
       </c>
     </row>
     <row r="67">
@@ -1897,22 +1897,22 @@
         <v>2089</v>
       </c>
       <c r="B67">
-        <v>0.42</v>
+        <v>0.5519500000000001</v>
       </c>
       <c r="C67">
-        <v>0.64</v>
+        <v>0.7652</v>
       </c>
       <c r="D67">
-        <v>1.11</v>
+        <v>1.30288</v>
       </c>
       <c r="E67">
-        <v>3.81</v>
+        <v>3.5311</v>
       </c>
       <c r="F67">
-        <v>26.67</v>
+        <v>17.56819</v>
       </c>
       <c r="G67">
-        <v>2447.35</v>
+        <v>2449.28068</v>
       </c>
     </row>
     <row r="68">
@@ -1920,22 +1920,22 @@
         <v>2090</v>
       </c>
       <c r="B68">
-        <v>0.3</v>
+        <v>0.3628</v>
       </c>
       <c r="C68">
-        <v>0.48</v>
+        <v>0.52662</v>
       </c>
       <c r="D68">
-        <v>0.71</v>
+        <v>0.9374400000000001</v>
       </c>
       <c r="E68">
-        <v>2.98</v>
+        <v>2.67259</v>
       </c>
       <c r="F68">
-        <v>20.71</v>
+        <v>13.75487</v>
       </c>
       <c r="G68">
-        <v>2454.82</v>
+        <v>2454.74568</v>
       </c>
     </row>
     <row r="69">
@@ -1943,22 +1943,22 @@
         <v>2091</v>
       </c>
       <c r="B69">
-        <v>0.21</v>
+        <v>0.23687</v>
       </c>
       <c r="C69">
-        <v>0.3</v>
+        <v>0.35716</v>
       </c>
       <c r="D69">
-        <v>0.4</v>
+        <v>0.669</v>
       </c>
       <c r="E69">
-        <v>1.99</v>
+        <v>2.00294</v>
       </c>
       <c r="F69">
-        <v>16.09</v>
+        <v>10.66044</v>
       </c>
       <c r="G69">
-        <v>2461.01</v>
+        <v>2459.07359</v>
       </c>
     </row>
     <row r="70">
@@ -1966,22 +1966,22 @@
         <v>2092</v>
       </c>
       <c r="B70">
-        <v>0.15</v>
+        <v>0.15199</v>
       </c>
       <c r="C70">
-        <v>0.17</v>
+        <v>0.24007</v>
       </c>
       <c r="D70">
-        <v>0.23</v>
+        <v>0.47547</v>
       </c>
       <c r="E70">
-        <v>1.44</v>
+        <v>1.48925</v>
       </c>
       <c r="F70">
-        <v>12.32</v>
+        <v>8.16961</v>
       </c>
       <c r="G70">
-        <v>2465.69</v>
+        <v>2462.47361</v>
       </c>
     </row>
     <row r="71">
@@ -1989,22 +1989,22 @@
         <v>2093</v>
       </c>
       <c r="B71">
-        <v>0.07000000000000001</v>
+        <v>0.09605</v>
       </c>
       <c r="C71">
-        <v>0.08</v>
+        <v>0.16149</v>
       </c>
       <c r="D71">
-        <v>0.23</v>
+        <v>0.33394</v>
       </c>
       <c r="E71">
-        <v>1.08</v>
+        <v>1.09147</v>
       </c>
       <c r="F71">
-        <v>8.800000000000001</v>
+        <v>6.18166</v>
       </c>
       <c r="G71">
-        <v>2469.74</v>
+        <v>2465.13539</v>
       </c>
     </row>
     <row r="72">
@@ -2012,22 +2012,22 @@
         <v>2094</v>
       </c>
       <c r="B72">
-        <v>0.03</v>
+        <v>0.06081</v>
       </c>
       <c r="C72">
-        <v>0.07000000000000001</v>
+        <v>0.1081</v>
       </c>
       <c r="D72">
-        <v>0.18</v>
+        <v>0.23563</v>
       </c>
       <c r="E72">
-        <v>0.79</v>
+        <v>0.79179</v>
       </c>
       <c r="F72">
-        <v>6.5</v>
+        <v>4.62245</v>
       </c>
       <c r="G72">
-        <v>2472.43</v>
+        <v>2467.18122</v>
       </c>
     </row>
     <row r="73">
@@ -2035,22 +2035,22 @@
         <v>2095</v>
       </c>
       <c r="B73">
-        <v>0.04</v>
+        <v>0.03718</v>
       </c>
       <c r="C73">
-        <v>0.01</v>
+        <v>0.0721</v>
       </c>
       <c r="D73">
-        <v>0.17</v>
+        <v>0.1654</v>
       </c>
       <c r="E73">
-        <v>0.61</v>
+        <v>0.56939</v>
       </c>
       <c r="F73">
-        <v>4.86</v>
+        <v>3.4202</v>
       </c>
       <c r="G73">
-        <v>2474.31</v>
+        <v>2468.73573</v>
       </c>
     </row>
     <row r="74">
@@ -2058,22 +2058,22 @@
         <v>2096</v>
       </c>
       <c r="B74">
-        <v>0.02</v>
+        <v>0.02384</v>
       </c>
       <c r="C74">
-        <v>0.01</v>
+        <v>0.04741</v>
       </c>
       <c r="D74">
-        <v>0.09</v>
+        <v>0.11477</v>
       </c>
       <c r="E74">
-        <v>0.38</v>
+        <v>0.40536</v>
       </c>
       <c r="F74">
-        <v>3.4</v>
+        <v>2.49186</v>
       </c>
       <c r="G74">
-        <v>2476.1</v>
+        <v>2469.91676</v>
       </c>
     </row>
     <row r="75">
@@ -2081,22 +2081,22 @@
         <v>2097</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.01472</v>
       </c>
       <c r="C75">
-        <v>0.01</v>
+        <v>0.03183</v>
       </c>
       <c r="D75">
-        <v>0.02</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="E75">
-        <v>0.25</v>
+        <v>0.28791</v>
       </c>
       <c r="F75">
-        <v>2.48</v>
+        <v>1.79486</v>
       </c>
       <c r="G75">
-        <v>2477.24</v>
+        <v>2470.79148</v>
       </c>
     </row>
     <row r="76">
@@ -2104,22 +2104,22 @@
         <v>2098</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="C76">
-        <v>0.01</v>
+        <v>0.02067</v>
       </c>
       <c r="D76">
-        <v>0.02</v>
+        <v>0.05394</v>
       </c>
       <c r="E76">
-        <v>0.19</v>
+        <v>0.20242</v>
       </c>
       <c r="F76">
-        <v>1.79</v>
+        <v>1.27395</v>
       </c>
       <c r="G76">
-        <v>2477.99</v>
+        <v>2471.4398</v>
       </c>
     </row>
     <row r="77">
@@ -2127,22 +2127,22 @@
         <v>2099</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.00568</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.01321</v>
       </c>
       <c r="D77">
-        <v>0.02</v>
+        <v>0.03673</v>
       </c>
       <c r="E77">
-        <v>0.12</v>
+        <v>0.13906</v>
       </c>
       <c r="F77">
-        <v>1.22</v>
+        <v>0.89401</v>
       </c>
       <c r="G77">
-        <v>2478.64</v>
+        <v>2471.91131</v>
       </c>
     </row>
     <row r="78">
@@ -2150,22 +2150,22 @@
         <v>2100</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.00373</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.008869999999999999</v>
       </c>
       <c r="D78">
-        <v>0.02</v>
+        <v>0.02515</v>
       </c>
       <c r="E78">
-        <v>0.09</v>
+        <v>0.09489</v>
       </c>
       <c r="F78">
-        <v>0.86</v>
+        <v>0.61935</v>
       </c>
       <c r="G78">
-        <v>2479.03</v>
+        <v>2472.24801</v>
       </c>
     </row>
     <row r="79">
@@ -2173,22 +2173,22 @@
         <v>2101</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.00235</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.00588</v>
       </c>
       <c r="D79">
-        <v>0.02</v>
+        <v>0.01602</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0.06438000000000001</v>
       </c>
       <c r="F79">
-        <v>0.59</v>
+        <v>0.42257</v>
       </c>
       <c r="G79">
-        <v>2479.33</v>
+        <v>2472.4888</v>
       </c>
     </row>
     <row r="80">
@@ -2196,22 +2196,22 @@
         <v>2102</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.00161</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.00363</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.01058</v>
       </c>
       <c r="E80">
-        <v>0.06</v>
+        <v>0.04272</v>
       </c>
       <c r="F80">
-        <v>0.4</v>
+        <v>0.285</v>
       </c>
       <c r="G80">
-        <v>2479.54</v>
+        <v>2472.65646</v>
       </c>
     </row>
     <row r="81">
@@ -2219,22 +2219,22 @@
         <v>2103</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.00246</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.00705</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.02801</v>
       </c>
       <c r="F81">
-        <v>0.26</v>
+        <v>0.1878</v>
       </c>
       <c r="G81">
-        <v>2479.72</v>
+        <v>2472.77378</v>
       </c>
     </row>
     <row r="82">
@@ -2242,22 +2242,22 @@
         <v>2104</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.00063</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.00162</v>
       </c>
       <c r="D82">
-        <v>0.01</v>
+        <v>0.00465</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01824</v>
       </c>
       <c r="F82">
-        <v>0.18</v>
+        <v>0.12037</v>
       </c>
       <c r="G82">
-        <v>2479.81</v>
+        <v>2472.85449</v>
       </c>
     </row>
     <row r="83">
@@ -2265,22 +2265,22 @@
         <v>2105</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.00098</v>
       </c>
       <c r="D83">
-        <v>0.01</v>
+        <v>0.00319</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.01124</v>
       </c>
       <c r="F83">
-        <v>0.13</v>
+        <v>0.07661</v>
       </c>
       <c r="G83">
-        <v>2479.86</v>
+        <v>2472.90758</v>
       </c>
     </row>
     <row r="84">
@@ -2288,22 +2288,22 @@
         <v>2106</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="D84">
-        <v>0.01</v>
+        <v>0.00191</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.00704</v>
       </c>
       <c r="F84">
-        <v>0.08</v>
+        <v>0.048</v>
       </c>
       <c r="G84">
-        <v>2479.91</v>
+        <v>2472.94218</v>
       </c>
     </row>
     <row r="85">
@@ -2311,22 +2311,22 @@
         <v>2107</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.0004600000000000001</v>
       </c>
       <c r="D85">
-        <v>0.01</v>
+        <v>0.00122</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.00418</v>
       </c>
       <c r="F85">
-        <v>0.05</v>
+        <v>0.02894</v>
       </c>
       <c r="G85">
-        <v>2479.94</v>
+        <v>2472.96505</v>
       </c>
     </row>
     <row r="86">
@@ -2334,22 +2334,22 @@
         <v>2108</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>8.999999999999999E-05</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.00069</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.00258</v>
       </c>
       <c r="F86">
-        <v>0.03</v>
+        <v>0.01703</v>
       </c>
       <c r="G86">
-        <v>2479.97</v>
+        <v>2472.97946</v>
       </c>
     </row>
     <row r="87">
@@ -2357,22 +2357,22 @@
         <v>2109</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1.999999999999999E-05</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7.000000000000002E-05</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.00033</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.00153</v>
       </c>
       <c r="F87">
-        <v>0.01</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="G87">
-        <v>2479.99</v>
+        <v>2472.98811</v>
       </c>
     </row>
     <row r="88">
@@ -2380,22 +2380,22 @@
         <v>2110</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1.999999999999999E-05</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>3.999999999999998E-05</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.00078</v>
       </c>
       <c r="F88">
-        <v>0.01</v>
+        <v>0.00569</v>
       </c>
       <c r="G88">
-        <v>2479.99</v>
+        <v>2472.99328</v>
       </c>
     </row>
     <row r="89">
@@ -2403,22 +2403,22 @@
         <v>2111</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9.999999999999996E-06</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>9.999999999999991E-06</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>8.999999999999999E-05</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.00297</v>
       </c>
       <c r="G89">
-        <v>2480</v>
+        <v>2472.99654</v>
       </c>
     </row>
     <row r="90">
@@ -2426,22 +2426,22 @@
         <v>2112</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>9.999999999999996E-06</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.00016</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.00157</v>
       </c>
       <c r="G90">
-        <v>2480</v>
+        <v>2472.99819</v>
       </c>
     </row>
     <row r="91">
@@ -2449,22 +2449,22 @@
         <v>2113</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>9.999999999999996E-06</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>8.999999999999999E-05</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.0008199999999999999</v>
       </c>
       <c r="G91">
-        <v>2480</v>
+        <v>2472.99903</v>
       </c>
     </row>
     <row r="92">
@@ -2472,22 +2472,22 @@
         <v>2114</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>9.999999999999996E-06</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>9.999999999999987E-06</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.00033</v>
       </c>
       <c r="G92">
-        <v>2480</v>
+        <v>2472.99958</v>
       </c>
     </row>
     <row r="93">
@@ -2498,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>9.999999999999987E-06</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>9.999999999999999E-05</v>
       </c>
       <c r="G93">
-        <v>2480</v>
+        <v>2472.99987</v>
       </c>
     </row>
     <row r="94">
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>9.999999999999997E-06</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1.999999999999999E-05</v>
       </c>
       <c r="G94">
-        <v>2480</v>
+        <v>2472.99997</v>
       </c>
     </row>
     <row r="95">
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="96">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="97">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="98">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="99">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="100">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="101">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="102">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>2480</v>
+        <v>2473</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2775,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>2520</v>
+        <v>2527</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2798,22 +2798,22 @@
         <v>2025</v>
       </c>
       <c r="B3">
-        <v>2474.53</v>
+        <v>2486.12274</v>
       </c>
       <c r="C3">
-        <v>25.23</v>
+        <v>23.23136</v>
       </c>
       <c r="D3">
-        <v>7.45</v>
+        <v>6.16526</v>
       </c>
       <c r="E3">
-        <v>4.69</v>
+        <v>4.4985</v>
       </c>
       <c r="F3">
-        <v>4.36</v>
+        <v>4.4201</v>
       </c>
       <c r="G3">
-        <v>3.74</v>
+        <v>2.56204</v>
       </c>
     </row>
     <row r="4">
@@ -2821,22 +2821,22 @@
         <v>2026</v>
       </c>
       <c r="B4">
-        <v>2429.64</v>
+        <v>2447.29207</v>
       </c>
       <c r="C4">
-        <v>48.68</v>
+        <v>44.46895</v>
       </c>
       <c r="D4">
-        <v>15.27</v>
+        <v>12.08522</v>
       </c>
       <c r="E4">
-        <v>9.51</v>
+        <v>8.927820000000001</v>
       </c>
       <c r="F4">
-        <v>8.859999999999999</v>
+        <v>8.78701</v>
       </c>
       <c r="G4">
-        <v>8.039999999999999</v>
+        <v>5.43893</v>
       </c>
     </row>
     <row r="5">
@@ -2844,22 +2844,22 @@
         <v>2027</v>
       </c>
       <c r="B5">
-        <v>2387.16</v>
+        <v>2410.0366</v>
       </c>
       <c r="C5">
-        <v>70.18000000000001</v>
+        <v>64.00314</v>
       </c>
       <c r="D5">
-        <v>22.71</v>
+        <v>17.85537</v>
       </c>
       <c r="E5">
-        <v>14.32</v>
+        <v>13.33042</v>
       </c>
       <c r="F5">
-        <v>13.08</v>
+        <v>13.12644</v>
       </c>
       <c r="G5">
-        <v>12.55</v>
+        <v>8.64803</v>
       </c>
     </row>
     <row r="6">
@@ -2867,22 +2867,22 @@
         <v>2028</v>
       </c>
       <c r="B6">
-        <v>2346.57</v>
+        <v>2374.09712</v>
       </c>
       <c r="C6">
-        <v>89.77</v>
+        <v>82.12384</v>
       </c>
       <c r="D6">
-        <v>29.84</v>
+        <v>23.44586</v>
       </c>
       <c r="E6">
-        <v>18.86</v>
+        <v>17.69308</v>
       </c>
       <c r="F6">
-        <v>17.39</v>
+        <v>17.43103</v>
       </c>
       <c r="G6">
-        <v>17.57</v>
+        <v>12.20907</v>
       </c>
     </row>
     <row r="7">
@@ -2890,22 +2890,22 @@
         <v>2029</v>
       </c>
       <c r="B7">
-        <v>2305.31</v>
+        <v>2339.0404</v>
       </c>
       <c r="C7">
-        <v>109.12</v>
+        <v>99.06748</v>
       </c>
       <c r="D7">
-        <v>36.7</v>
+        <v>28.92283</v>
       </c>
       <c r="E7">
-        <v>23.96</v>
+        <v>22.05903</v>
       </c>
       <c r="F7">
-        <v>21.92</v>
+        <v>21.74992</v>
       </c>
       <c r="G7">
-        <v>22.99</v>
+        <v>16.16034</v>
       </c>
     </row>
     <row r="8">
@@ -2913,22 +2913,22 @@
         <v>2030</v>
       </c>
       <c r="B8">
-        <v>2266.07</v>
+        <v>2304.54924</v>
       </c>
       <c r="C8">
-        <v>126.53</v>
+        <v>115.07308</v>
       </c>
       <c r="D8">
-        <v>43.51</v>
+        <v>34.34631</v>
       </c>
       <c r="E8">
-        <v>28.56</v>
+        <v>26.44157</v>
       </c>
       <c r="F8">
-        <v>26.31</v>
+        <v>26.08173</v>
       </c>
       <c r="G8">
-        <v>29.02</v>
+        <v>20.50807</v>
       </c>
     </row>
     <row r="9">
@@ -2936,22 +2936,22 @@
         <v>2031</v>
       </c>
       <c r="B9">
-        <v>2226.49</v>
+        <v>2270.366</v>
       </c>
       <c r="C9">
-        <v>144.17</v>
+        <v>130.29253</v>
       </c>
       <c r="D9">
-        <v>50.64</v>
+        <v>39.72529</v>
       </c>
       <c r="E9">
-        <v>32.69</v>
+        <v>30.83614</v>
       </c>
       <c r="F9">
-        <v>30.61</v>
+        <v>30.4805</v>
       </c>
       <c r="G9">
-        <v>35.4</v>
+        <v>25.29954</v>
       </c>
     </row>
     <row r="10">
@@ -2959,22 +2959,22 @@
         <v>2032</v>
       </c>
       <c r="B10">
-        <v>2187.7</v>
+        <v>2236.23134</v>
       </c>
       <c r="C10">
-        <v>160.77</v>
+        <v>144.91517</v>
       </c>
       <c r="D10">
-        <v>56.59</v>
+        <v>45.06844</v>
       </c>
       <c r="E10">
-        <v>37.38</v>
+        <v>35.27567</v>
       </c>
       <c r="F10">
-        <v>35.12</v>
+        <v>34.9461</v>
       </c>
       <c r="G10">
-        <v>42.44</v>
+        <v>30.56328</v>
       </c>
     </row>
     <row r="11">
@@ -2982,22 +2982,22 @@
         <v>2033</v>
       </c>
       <c r="B11">
-        <v>2148.79</v>
+        <v>2201.92636</v>
       </c>
       <c r="C11">
-        <v>176.32</v>
+        <v>159.03219</v>
       </c>
       <c r="D11">
-        <v>63.27</v>
+        <v>50.40995</v>
       </c>
       <c r="E11">
-        <v>41.67</v>
+        <v>39.77824</v>
       </c>
       <c r="F11">
-        <v>39.65</v>
+        <v>39.49929</v>
       </c>
       <c r="G11">
-        <v>50.3</v>
+        <v>36.35397</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         <v>2034</v>
       </c>
       <c r="B12">
-        <v>2108.48</v>
+        <v>2167.236</v>
       </c>
       <c r="C12">
-        <v>191.53</v>
+        <v>172.746</v>
       </c>
       <c r="D12">
-        <v>70.26000000000001</v>
+        <v>55.82508</v>
       </c>
       <c r="E12">
-        <v>46.79</v>
+        <v>44.34459</v>
       </c>
       <c r="F12">
-        <v>44.41</v>
+        <v>44.16392</v>
       </c>
       <c r="G12">
-        <v>58.53</v>
+        <v>42.68441</v>
       </c>
     </row>
     <row r="13">
@@ -3028,22 +3028,22 @@
         <v>2035</v>
       </c>
       <c r="B13">
-        <v>2068.36</v>
+        <v>2131.96587</v>
       </c>
       <c r="C13">
-        <v>206.59</v>
+        <v>186.23635</v>
       </c>
       <c r="D13">
-        <v>76.53</v>
+        <v>61.25966</v>
       </c>
       <c r="E13">
-        <v>51.53</v>
+        <v>49.00117</v>
       </c>
       <c r="F13">
-        <v>48.82</v>
+        <v>48.95325</v>
       </c>
       <c r="G13">
-        <v>68.17</v>
+        <v>49.5837</v>
       </c>
     </row>
     <row r="14">
@@ -3051,22 +3051,22 @@
         <v>2036</v>
       </c>
       <c r="B14">
-        <v>2027.62</v>
+        <v>2096.05692</v>
       </c>
       <c r="C14">
-        <v>221.17</v>
+        <v>199.41945</v>
       </c>
       <c r="D14">
-        <v>81.95</v>
+        <v>66.73256000000001</v>
       </c>
       <c r="E14">
-        <v>56.67</v>
+        <v>53.76108</v>
       </c>
       <c r="F14">
-        <v>54.06</v>
+        <v>53.90755</v>
       </c>
       <c r="G14">
-        <v>78.53</v>
+        <v>57.12244</v>
       </c>
     </row>
     <row r="15">
@@ -3074,22 +3074,22 @@
         <v>2037</v>
       </c>
       <c r="B15">
-        <v>1986.93</v>
+        <v>2059.38579</v>
       </c>
       <c r="C15">
-        <v>234.99</v>
+        <v>212.33165</v>
       </c>
       <c r="D15">
-        <v>88.06</v>
+        <v>72.26885</v>
       </c>
       <c r="E15">
-        <v>61.89</v>
+        <v>58.63158</v>
       </c>
       <c r="F15">
-        <v>58.44</v>
+        <v>59.04488</v>
       </c>
       <c r="G15">
-        <v>89.69</v>
+        <v>65.33725</v>
       </c>
     </row>
     <row r="16">
@@ -3097,22 +3097,22 @@
         <v>2038</v>
       </c>
       <c r="B16">
-        <v>1946.12</v>
+        <v>2021.82891</v>
       </c>
       <c r="C16">
-        <v>246.95</v>
+        <v>224.99531</v>
       </c>
       <c r="D16">
-        <v>94.29000000000001</v>
+        <v>77.81655000000001</v>
       </c>
       <c r="E16">
-        <v>67.34</v>
+        <v>63.61156</v>
       </c>
       <c r="F16">
-        <v>63.78</v>
+        <v>64.4115</v>
       </c>
       <c r="G16">
-        <v>101.52</v>
+        <v>74.33617</v>
       </c>
     </row>
     <row r="17">
@@ -3120,22 +3120,22 @@
         <v>2039</v>
       </c>
       <c r="B17">
-        <v>1904.32</v>
+        <v>1983.32097</v>
       </c>
       <c r="C17">
-        <v>260.66</v>
+        <v>237.31735</v>
       </c>
       <c r="D17">
-        <v>99.92</v>
+        <v>83.46129000000001</v>
       </c>
       <c r="E17">
-        <v>72.14</v>
+        <v>68.71760999999999</v>
       </c>
       <c r="F17">
-        <v>68.3</v>
+        <v>70.04429</v>
       </c>
       <c r="G17">
-        <v>114.66</v>
+        <v>84.13849</v>
       </c>
     </row>
     <row r="18">
@@ -3143,22 +3143,22 @@
         <v>2040</v>
       </c>
       <c r="B18">
-        <v>1860.33</v>
+        <v>1943.74079</v>
       </c>
       <c r="C18">
-        <v>272.13</v>
+        <v>249.31872</v>
       </c>
       <c r="D18">
-        <v>106.41</v>
+        <v>89.14831</v>
       </c>
       <c r="E18">
-        <v>77.59</v>
+        <v>73.97662</v>
       </c>
       <c r="F18">
-        <v>74.3</v>
+        <v>75.93346</v>
       </c>
       <c r="G18">
-        <v>129.24</v>
+        <v>94.88209999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3166,22 +3166,22 @@
         <v>2041</v>
       </c>
       <c r="B19">
-        <v>1817.43</v>
+        <v>1903.05664</v>
       </c>
       <c r="C19">
-        <v>281.79</v>
+        <v>260.90433</v>
       </c>
       <c r="D19">
-        <v>113.23</v>
+        <v>94.84322</v>
       </c>
       <c r="E19">
-        <v>82.56999999999999</v>
+        <v>79.40082</v>
       </c>
       <c r="F19">
-        <v>79.95</v>
+        <v>82.16914</v>
       </c>
       <c r="G19">
-        <v>145.03</v>
+        <v>106.62585</v>
       </c>
     </row>
     <row r="20">
@@ -3189,22 +3189,22 @@
         <v>2042</v>
       </c>
       <c r="B20">
-        <v>1771.47</v>
+        <v>1860.97881</v>
       </c>
       <c r="C20">
-        <v>293.04</v>
+        <v>272.12585</v>
       </c>
       <c r="D20">
-        <v>119.47</v>
+        <v>100.58269</v>
       </c>
       <c r="E20">
-        <v>87.63</v>
+        <v>84.99867999999999</v>
       </c>
       <c r="F20">
-        <v>85.63</v>
+        <v>88.81055000000001</v>
       </c>
       <c r="G20">
-        <v>162.76</v>
+        <v>119.50342</v>
       </c>
     </row>
     <row r="21">
@@ -3212,22 +3212,22 @@
         <v>2043</v>
       </c>
       <c r="B21">
-        <v>1723.08</v>
+        <v>1817.41798</v>
       </c>
       <c r="C21">
-        <v>304.56</v>
+        <v>282.81414</v>
       </c>
       <c r="D21">
-        <v>125.24</v>
+        <v>106.39359</v>
       </c>
       <c r="E21">
-        <v>94.03</v>
+        <v>90.7509</v>
       </c>
       <c r="F21">
-        <v>91.63</v>
+        <v>95.99491999999999</v>
       </c>
       <c r="G21">
-        <v>181.46</v>
+        <v>133.62847</v>
       </c>
     </row>
     <row r="22">
@@ -3235,22 +3235,22 @@
         <v>2044</v>
       </c>
       <c r="B22">
-        <v>1674.11</v>
+        <v>1772.11496</v>
       </c>
       <c r="C22">
-        <v>315.74</v>
+        <v>293.01375</v>
       </c>
       <c r="D22">
-        <v>132.01</v>
+        <v>112.16096</v>
       </c>
       <c r="E22">
-        <v>98.58</v>
+        <v>96.71295000000001</v>
       </c>
       <c r="F22">
-        <v>97.81999999999999</v>
+        <v>103.84192</v>
       </c>
       <c r="G22">
-        <v>201.74</v>
+        <v>149.15546</v>
       </c>
     </row>
     <row r="23">
@@ -3258,22 +3258,22 @@
         <v>2045</v>
       </c>
       <c r="B23">
-        <v>1624.82</v>
+        <v>1724.91501</v>
       </c>
       <c r="C23">
-        <v>325.25</v>
+        <v>302.62516</v>
       </c>
       <c r="D23">
-        <v>137.1</v>
+        <v>117.94209</v>
       </c>
       <c r="E23">
-        <v>104.47</v>
+        <v>102.90708</v>
       </c>
       <c r="F23">
-        <v>104.21</v>
+        <v>112.38245</v>
       </c>
       <c r="G23">
-        <v>224.15</v>
+        <v>166.22821</v>
       </c>
     </row>
     <row r="24">
@@ -3281,22 +3281,22 @@
         <v>2046</v>
       </c>
       <c r="B24">
-        <v>1573.19</v>
+        <v>1675.59653</v>
       </c>
       <c r="C24">
-        <v>334.02</v>
+        <v>311.53174</v>
       </c>
       <c r="D24">
-        <v>143.01</v>
+        <v>123.65612</v>
       </c>
       <c r="E24">
-        <v>110.07</v>
+        <v>109.35744</v>
       </c>
       <c r="F24">
-        <v>110.66</v>
+        <v>121.79767</v>
       </c>
       <c r="G24">
-        <v>249.05</v>
+        <v>185.0605</v>
       </c>
     </row>
     <row r="25">
@@ -3304,22 +3304,22 @@
         <v>2047</v>
       </c>
       <c r="B25">
-        <v>1517.89</v>
+        <v>1623.8224</v>
       </c>
       <c r="C25">
-        <v>342.62</v>
+        <v>319.69537</v>
       </c>
       <c r="D25">
-        <v>148.71</v>
+        <v>129.36202</v>
       </c>
       <c r="E25">
-        <v>115.57</v>
+        <v>116.05465</v>
       </c>
       <c r="F25">
-        <v>118.96</v>
+        <v>132.21565</v>
       </c>
       <c r="G25">
-        <v>276.25</v>
+        <v>205.84991</v>
       </c>
     </row>
     <row r="26">
@@ -3327,22 +3327,22 @@
         <v>2048</v>
       </c>
       <c r="B26">
-        <v>1461.67</v>
+        <v>1569.32734</v>
       </c>
       <c r="C26">
-        <v>347.52</v>
+        <v>327.00262</v>
       </c>
       <c r="D26">
-        <v>155.72</v>
+        <v>135.00481</v>
       </c>
       <c r="E26">
-        <v>121.91</v>
+        <v>122.97343</v>
       </c>
       <c r="F26">
-        <v>127.87</v>
+        <v>143.86585</v>
       </c>
       <c r="G26">
-        <v>305.31</v>
+        <v>228.82595</v>
       </c>
     </row>
     <row r="27">
@@ -3350,22 +3350,22 @@
         <v>2049</v>
       </c>
       <c r="B27">
-        <v>1401.81</v>
+        <v>1511.86729</v>
       </c>
       <c r="C27">
-        <v>353.12</v>
+        <v>333.34324</v>
       </c>
       <c r="D27">
-        <v>161.91</v>
+        <v>140.52682</v>
       </c>
       <c r="E27">
-        <v>128.11</v>
+        <v>130.18778</v>
       </c>
       <c r="F27">
-        <v>136.89</v>
+        <v>156.88398</v>
       </c>
       <c r="G27">
-        <v>338.16</v>
+        <v>254.19089</v>
       </c>
     </row>
     <row r="28">
@@ -3373,22 +3373,22 @@
         <v>2050</v>
       </c>
       <c r="B28">
-        <v>1340.25</v>
+        <v>1451.31083</v>
       </c>
       <c r="C28">
-        <v>356.78</v>
+        <v>338.60311</v>
       </c>
       <c r="D28">
-        <v>166.42</v>
+        <v>145.84294</v>
       </c>
       <c r="E28">
-        <v>134.83</v>
+        <v>137.65169</v>
       </c>
       <c r="F28">
-        <v>148.27</v>
+        <v>171.36338</v>
       </c>
       <c r="G28">
-        <v>373.45</v>
+        <v>282.22805</v>
       </c>
     </row>
     <row r="29">
@@ -3396,22 +3396,22 @@
         <v>2051</v>
       </c>
       <c r="B29">
-        <v>1277.05</v>
+        <v>1387.62341</v>
       </c>
       <c r="C29">
-        <v>358.81</v>
+        <v>342.50127</v>
       </c>
       <c r="D29">
-        <v>170.69</v>
+        <v>150.91814</v>
       </c>
       <c r="E29">
-        <v>141.22</v>
+        <v>145.23153</v>
       </c>
       <c r="F29">
-        <v>160.52</v>
+        <v>187.51479</v>
       </c>
       <c r="G29">
-        <v>411.71</v>
+        <v>313.21086</v>
       </c>
     </row>
     <row r="30">
@@ -3419,22 +3419,22 @@
         <v>2052</v>
       </c>
       <c r="B30">
-        <v>1209.49</v>
+        <v>1320.97542</v>
       </c>
       <c r="C30">
-        <v>362.07</v>
+        <v>344.87819</v>
       </c>
       <c r="D30">
-        <v>173.94</v>
+        <v>155.50663</v>
       </c>
       <c r="E30">
-        <v>149.04</v>
+        <v>152.96339</v>
       </c>
       <c r="F30">
-        <v>172.16</v>
+        <v>205.28745</v>
       </c>
       <c r="G30">
-        <v>453.3</v>
+        <v>347.38892</v>
       </c>
     </row>
     <row r="31">
@@ -3442,22 +3442,22 @@
         <v>2053</v>
       </c>
       <c r="B31">
-        <v>1143.6</v>
+        <v>1251.60101</v>
       </c>
       <c r="C31">
-        <v>360.3</v>
+        <v>345.36314</v>
       </c>
       <c r="D31">
-        <v>178.5</v>
+        <v>159.62554</v>
       </c>
       <c r="E31">
-        <v>153.83</v>
+        <v>160.60913</v>
       </c>
       <c r="F31">
-        <v>186.75</v>
+        <v>224.78668</v>
       </c>
       <c r="G31">
-        <v>497.02</v>
+        <v>385.0145</v>
       </c>
     </row>
     <row r="32">
@@ -3465,22 +3465,22 @@
         <v>2054</v>
       </c>
       <c r="B32">
-        <v>1072.75</v>
+        <v>1179.91185</v>
       </c>
       <c r="C32">
-        <v>358.24</v>
+        <v>343.83122</v>
       </c>
       <c r="D32">
-        <v>182.59</v>
+        <v>162.93028</v>
       </c>
       <c r="E32">
-        <v>159.05</v>
+        <v>168.0322</v>
       </c>
       <c r="F32">
-        <v>201.14</v>
+        <v>245.89777</v>
       </c>
       <c r="G32">
-        <v>546.23</v>
+        <v>426.39668</v>
       </c>
     </row>
     <row r="33">
@@ -3488,22 +3488,22 @@
         <v>2055</v>
       </c>
       <c r="B33">
-        <v>1001.14</v>
+        <v>1106.43551</v>
       </c>
       <c r="C33">
-        <v>354.04</v>
+        <v>339.96304</v>
       </c>
       <c r="D33">
-        <v>185.46</v>
+        <v>165.36999</v>
       </c>
       <c r="E33">
-        <v>164.23</v>
+        <v>174.9696</v>
       </c>
       <c r="F33">
-        <v>216.84</v>
+        <v>268.48355</v>
       </c>
       <c r="G33">
-        <v>598.29</v>
+        <v>471.77831</v>
       </c>
     </row>
     <row r="34">
@@ -3511,22 +3511,22 @@
         <v>2056</v>
       </c>
       <c r="B34">
-        <v>929.1</v>
+        <v>1031.70489</v>
       </c>
       <c r="C34">
-        <v>345.7</v>
+        <v>333.72879</v>
       </c>
       <c r="D34">
-        <v>186.96</v>
+        <v>166.68073</v>
       </c>
       <c r="E34">
-        <v>168.86</v>
+        <v>181.30742</v>
       </c>
       <c r="F34">
-        <v>234.49</v>
+        <v>292.24725</v>
       </c>
       <c r="G34">
-        <v>654.89</v>
+        <v>521.33092</v>
       </c>
     </row>
     <row r="35">
@@ -3534,22 +3534,22 @@
         <v>2057</v>
       </c>
       <c r="B35">
-        <v>857.46</v>
+        <v>956.23394</v>
       </c>
       <c r="C35">
-        <v>337.33</v>
+        <v>324.97082</v>
       </c>
       <c r="D35">
-        <v>185.46</v>
+        <v>166.8638</v>
       </c>
       <c r="E35">
-        <v>172.62</v>
+        <v>186.74391</v>
       </c>
       <c r="F35">
-        <v>251.54</v>
+        <v>316.88771</v>
       </c>
       <c r="G35">
-        <v>715.59</v>
+        <v>575.29982</v>
       </c>
     </row>
     <row r="36">
@@ -3557,22 +3557,22 @@
         <v>2058</v>
       </c>
       <c r="B36">
-        <v>786.67</v>
+        <v>880.72031</v>
       </c>
       <c r="C36">
-        <v>324.88</v>
+        <v>313.888</v>
       </c>
       <c r="D36">
-        <v>184.55</v>
+        <v>165.72472</v>
       </c>
       <c r="E36">
-        <v>176.22</v>
+        <v>191.00801</v>
       </c>
       <c r="F36">
-        <v>267.36</v>
+        <v>342.00795</v>
       </c>
       <c r="G36">
-        <v>780.3200000000001</v>
+        <v>633.65101</v>
       </c>
     </row>
     <row r="37">
@@ -3580,22 +3580,22 @@
         <v>2059</v>
       </c>
       <c r="B37">
-        <v>717.4299999999999</v>
+        <v>805.78777</v>
       </c>
       <c r="C37">
-        <v>311.51</v>
+        <v>300.48684</v>
       </c>
       <c r="D37">
-        <v>180.99</v>
+        <v>163.18538</v>
       </c>
       <c r="E37">
-        <v>177.25</v>
+        <v>193.97912</v>
       </c>
       <c r="F37">
-        <v>283.79</v>
+        <v>367.02939</v>
       </c>
       <c r="G37">
-        <v>849.03</v>
+        <v>696.5315000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3603,22 +3603,22 @@
         <v>2060</v>
       </c>
       <c r="B38">
-        <v>649.13</v>
+        <v>732.018</v>
       </c>
       <c r="C38">
-        <v>293.18</v>
+        <v>285.00128</v>
       </c>
       <c r="D38">
-        <v>177.96</v>
+        <v>159.26077</v>
       </c>
       <c r="E38">
-        <v>177.71</v>
+        <v>195.40879</v>
       </c>
       <c r="F38">
-        <v>300.01</v>
+        <v>391.38414</v>
       </c>
       <c r="G38">
-        <v>922.01</v>
+        <v>763.92702</v>
       </c>
     </row>
     <row r="39">
@@ -3626,22 +3626,22 @@
         <v>2061</v>
       </c>
       <c r="B39">
-        <v>582.0599999999999</v>
+        <v>660.13402</v>
       </c>
       <c r="C39">
-        <v>276.26</v>
+        <v>267.7291</v>
       </c>
       <c r="D39">
-        <v>172.07</v>
+        <v>153.93033</v>
       </c>
       <c r="E39">
-        <v>175.91</v>
+        <v>195.2073</v>
       </c>
       <c r="F39">
-        <v>317.41</v>
+        <v>414.36964</v>
       </c>
       <c r="G39">
-        <v>996.29</v>
+        <v>835.62961</v>
       </c>
     </row>
     <row r="40">
@@ -3649,22 +3649,22 @@
         <v>2062</v>
       </c>
       <c r="B40">
-        <v>517.4</v>
+        <v>590.81972</v>
       </c>
       <c r="C40">
-        <v>258.26</v>
+        <v>249.04247</v>
       </c>
       <c r="D40">
-        <v>164.55</v>
+        <v>147.32688</v>
       </c>
       <c r="E40">
-        <v>174.55</v>
+        <v>193.12204</v>
       </c>
       <c r="F40">
-        <v>330.21</v>
+        <v>435.19367</v>
       </c>
       <c r="G40">
-        <v>1075.03</v>
+        <v>911.49522</v>
       </c>
     </row>
     <row r="41">
@@ -3672,22 +3672,22 @@
         <v>2063</v>
       </c>
       <c r="B41">
-        <v>457.34</v>
+        <v>524.59356</v>
       </c>
       <c r="C41">
-        <v>239.8</v>
+        <v>229.28228</v>
       </c>
       <c r="D41">
-        <v>154.57</v>
+        <v>139.54818</v>
       </c>
       <c r="E41">
-        <v>169.27</v>
+        <v>189.29967</v>
       </c>
       <c r="F41">
-        <v>341.48</v>
+        <v>453.13637</v>
       </c>
       <c r="G41">
-        <v>1157.54</v>
+        <v>991.13994</v>
       </c>
     </row>
     <row r="42">
@@ -3695,22 +3695,22 @@
         <v>2064</v>
       </c>
       <c r="B42">
-        <v>401.86</v>
+        <v>461.98645</v>
       </c>
       <c r="C42">
-        <v>217.09</v>
+        <v>208.83833</v>
       </c>
       <c r="D42">
-        <v>145.16</v>
+        <v>130.81368</v>
       </c>
       <c r="E42">
-        <v>164.28</v>
+        <v>183.71935</v>
       </c>
       <c r="F42">
-        <v>350.85</v>
+        <v>467.46062</v>
       </c>
       <c r="G42">
-        <v>1240.76</v>
+        <v>1074.18157</v>
       </c>
     </row>
     <row r="43">
@@ -3718,22 +3718,22 @@
         <v>2065</v>
       </c>
       <c r="B43">
-        <v>348.4</v>
+        <v>403.43052</v>
       </c>
       <c r="C43">
-        <v>198.33</v>
+        <v>188.2846</v>
       </c>
       <c r="D43">
-        <v>134.14</v>
+        <v>121.35696</v>
       </c>
       <c r="E43">
-        <v>157.84</v>
+        <v>176.43077</v>
       </c>
       <c r="F43">
-        <v>356.14</v>
+        <v>477.48555</v>
       </c>
       <c r="G43">
-        <v>1325.15</v>
+        <v>1160.0116</v>
       </c>
     </row>
     <row r="44">
@@ -3741,22 +3741,22 @@
         <v>2066</v>
       </c>
       <c r="B44">
-        <v>300.28</v>
+        <v>349.28666</v>
       </c>
       <c r="C44">
-        <v>178.23</v>
+        <v>167.9291</v>
       </c>
       <c r="D44">
-        <v>123.11</v>
+        <v>111.3469</v>
       </c>
       <c r="E44">
-        <v>150.35</v>
+        <v>167.69626</v>
       </c>
       <c r="F44">
-        <v>358.27</v>
+        <v>482.79763</v>
       </c>
       <c r="G44">
-        <v>1409.76</v>
+        <v>1247.94345</v>
       </c>
     </row>
     <row r="45">
@@ -3764,22 +3764,22 @@
         <v>2067</v>
       </c>
       <c r="B45">
-        <v>257.72</v>
+        <v>299.69107</v>
       </c>
       <c r="C45">
-        <v>157.05</v>
+        <v>148.177</v>
       </c>
       <c r="D45">
-        <v>111.48</v>
+        <v>101.10486</v>
       </c>
       <c r="E45">
-        <v>142.63</v>
+        <v>157.74349</v>
       </c>
       <c r="F45">
-        <v>355.27</v>
+        <v>483.05034</v>
       </c>
       <c r="G45">
-        <v>1495.85</v>
+        <v>1337.23324</v>
       </c>
     </row>
     <row r="46">
@@ -3787,22 +3787,22 @@
         <v>2068</v>
       </c>
       <c r="B46">
-        <v>219.14</v>
+        <v>254.78555</v>
       </c>
       <c r="C46">
-        <v>135.75</v>
+        <v>129.33824</v>
       </c>
       <c r="D46">
-        <v>101.68</v>
+        <v>90.78288000000001</v>
       </c>
       <c r="E46">
-        <v>131.71</v>
+        <v>146.87399</v>
       </c>
       <c r="F46">
-        <v>352.42</v>
+        <v>478.0701</v>
       </c>
       <c r="G46">
-        <v>1579.3</v>
+        <v>1427.14924</v>
       </c>
     </row>
     <row r="47">
@@ -3810,22 +3810,22 @@
         <v>2069</v>
       </c>
       <c r="B47">
-        <v>183.97</v>
+        <v>214.65295</v>
       </c>
       <c r="C47">
-        <v>115.8</v>
+        <v>111.66995</v>
       </c>
       <c r="D47">
-        <v>90.44</v>
+        <v>80.64302000000001</v>
       </c>
       <c r="E47">
-        <v>124.4</v>
+        <v>135.35886</v>
       </c>
       <c r="F47">
-        <v>342.9</v>
+        <v>467.97264</v>
       </c>
       <c r="G47">
-        <v>1662.49</v>
+        <v>1516.70258</v>
       </c>
     </row>
     <row r="48">
@@ -3833,22 +3833,22 @@
         <v>2070</v>
       </c>
       <c r="B48">
-        <v>151.21</v>
+        <v>179.13823</v>
       </c>
       <c r="C48">
-        <v>99.64</v>
+        <v>95.32053999999999</v>
       </c>
       <c r="D48">
-        <v>80.5</v>
+        <v>70.89507</v>
       </c>
       <c r="E48">
-        <v>112.53</v>
+        <v>123.50128</v>
       </c>
       <c r="F48">
-        <v>331.87</v>
+        <v>453.07711</v>
       </c>
       <c r="G48">
-        <v>1744.25</v>
+        <v>1605.06777</v>
       </c>
     </row>
     <row r="49">
@@ -3856,22 +3856,22 @@
         <v>2071</v>
       </c>
       <c r="B49">
-        <v>126.8</v>
+        <v>148.01884</v>
       </c>
       <c r="C49">
-        <v>83.36</v>
+        <v>80.43442</v>
       </c>
       <c r="D49">
-        <v>69.81999999999999</v>
+        <v>61.57538</v>
       </c>
       <c r="E49">
-        <v>102.05</v>
+        <v>111.50083</v>
       </c>
       <c r="F49">
-        <v>314.85</v>
+        <v>433.96364</v>
       </c>
       <c r="G49">
-        <v>1823.12</v>
+        <v>1691.50689</v>
       </c>
     </row>
     <row r="50">
@@ -3879,22 +3879,22 @@
         <v>2072</v>
       </c>
       <c r="B50">
-        <v>103.05</v>
+        <v>121.10086</v>
       </c>
       <c r="C50">
-        <v>70.22</v>
+        <v>67.08967</v>
       </c>
       <c r="D50">
-        <v>60.12</v>
+        <v>52.94585</v>
       </c>
       <c r="E50">
-        <v>92.20999999999999</v>
+        <v>99.67381</v>
       </c>
       <c r="F50">
-        <v>296.46</v>
+        <v>411.04121</v>
       </c>
       <c r="G50">
-        <v>1897.94</v>
+        <v>1775.1486</v>
       </c>
     </row>
     <row r="51">
@@ -3902,22 +3902,22 @@
         <v>2073</v>
       </c>
       <c r="B51">
-        <v>83.65000000000001</v>
+        <v>98.08104</v>
       </c>
       <c r="C51">
-        <v>57.46</v>
+        <v>55.32139</v>
       </c>
       <c r="D51">
-        <v>51.21</v>
+        <v>44.98367</v>
       </c>
       <c r="E51">
-        <v>79.98</v>
+        <v>88.19164000000001</v>
       </c>
       <c r="F51">
-        <v>278.09</v>
+        <v>385.17032</v>
       </c>
       <c r="G51">
-        <v>1969.61</v>
+        <v>1855.25194</v>
       </c>
     </row>
     <row r="52">
@@ -3925,22 +3925,22 @@
         <v>2074</v>
       </c>
       <c r="B52">
-        <v>66.06999999999999</v>
+        <v>78.58199</v>
       </c>
       <c r="C52">
-        <v>47.43</v>
+        <v>45.08822</v>
       </c>
       <c r="D52">
-        <v>42.16</v>
+        <v>37.81444</v>
       </c>
       <c r="E52">
-        <v>71.38</v>
+        <v>77.21890999999999</v>
       </c>
       <c r="F52">
-        <v>256.13</v>
+        <v>357.03625</v>
       </c>
       <c r="G52">
-        <v>2036.83</v>
+        <v>1931.26019</v>
       </c>
     </row>
     <row r="53">
@@ -3948,22 +3948,22 @@
         <v>2075</v>
       </c>
       <c r="B53">
-        <v>52.37</v>
+        <v>62.28784</v>
       </c>
       <c r="C53">
-        <v>37.97</v>
+        <v>36.26604</v>
       </c>
       <c r="D53">
-        <v>35.7</v>
+        <v>31.43887</v>
       </c>
       <c r="E53">
-        <v>61.8</v>
+        <v>66.94987999999999</v>
       </c>
       <c r="F53">
-        <v>234.14</v>
+        <v>327.45045</v>
       </c>
       <c r="G53">
-        <v>2098.02</v>
+        <v>2002.60692</v>
       </c>
     </row>
     <row r="54">
@@ -3971,22 +3971,22 @@
         <v>2076</v>
       </c>
       <c r="B54">
-        <v>41.44</v>
+        <v>48.84553</v>
       </c>
       <c r="C54">
-        <v>30.41</v>
+        <v>28.81979</v>
       </c>
       <c r="D54">
-        <v>28.4</v>
+        <v>25.84269</v>
       </c>
       <c r="E54">
-        <v>53.29</v>
+        <v>57.43517</v>
       </c>
       <c r="F54">
-        <v>211.33</v>
+        <v>297.07332</v>
       </c>
       <c r="G54">
-        <v>2155.13</v>
+        <v>2068.9835</v>
       </c>
     </row>
     <row r="55">
@@ -3994,22 +3994,22 @@
         <v>2077</v>
       </c>
       <c r="B55">
-        <v>31.84</v>
+        <v>37.86984</v>
       </c>
       <c r="C55">
-        <v>23.87</v>
+        <v>22.6321</v>
       </c>
       <c r="D55">
-        <v>23.89</v>
+        <v>20.98307</v>
       </c>
       <c r="E55">
-        <v>44.73</v>
+        <v>48.75484</v>
       </c>
       <c r="F55">
-        <v>189.45</v>
+        <v>266.62877</v>
       </c>
       <c r="G55">
-        <v>2206.22</v>
+        <v>2130.13138</v>
       </c>
     </row>
     <row r="56">
@@ -4017,22 +4017,22 @@
         <v>2078</v>
       </c>
       <c r="B56">
-        <v>23.78</v>
+        <v>29.03325</v>
       </c>
       <c r="C56">
-        <v>18.63</v>
+        <v>17.54696</v>
       </c>
       <c r="D56">
-        <v>19.57</v>
+        <v>16.86225</v>
       </c>
       <c r="E56">
-        <v>37.1</v>
+        <v>41.01546</v>
       </c>
       <c r="F56">
-        <v>168.76</v>
+        <v>236.75544</v>
       </c>
       <c r="G56">
-        <v>2252.16</v>
+        <v>2185.78664</v>
       </c>
     </row>
     <row r="57">
@@ -4040,22 +4040,22 @@
         <v>2079</v>
       </c>
       <c r="B57">
-        <v>18.26</v>
+        <v>21.99029</v>
       </c>
       <c r="C57">
-        <v>14.61</v>
+        <v>13.45616</v>
       </c>
       <c r="D57">
-        <v>15.23</v>
+        <v>13.39058</v>
       </c>
       <c r="E57">
-        <v>31.4</v>
+        <v>34.14294</v>
       </c>
       <c r="F57">
-        <v>147</v>
+        <v>207.9687</v>
       </c>
       <c r="G57">
-        <v>2293.5</v>
+        <v>2236.05133</v>
       </c>
     </row>
     <row r="58">
@@ -4063,22 +4063,22 @@
         <v>2080</v>
       </c>
       <c r="B58">
-        <v>13.68</v>
+        <v>16.45497</v>
       </c>
       <c r="C58">
-        <v>11.22</v>
+        <v>10.19519</v>
       </c>
       <c r="D58">
-        <v>11.72</v>
+        <v>10.51447</v>
       </c>
       <c r="E58">
-        <v>26.57</v>
+        <v>28.11632</v>
       </c>
       <c r="F58">
-        <v>126.67</v>
+        <v>180.76216</v>
       </c>
       <c r="G58">
-        <v>2330.14</v>
+        <v>2280.95689</v>
       </c>
     </row>
     <row r="59">
@@ -4086,22 +4086,22 @@
         <v>2081</v>
       </c>
       <c r="B59">
-        <v>10.35</v>
+        <v>12.17942</v>
       </c>
       <c r="C59">
-        <v>8.34</v>
+        <v>7.63327</v>
       </c>
       <c r="D59">
-        <v>9.66</v>
+        <v>8.170439999999999</v>
       </c>
       <c r="E59">
-        <v>21.27</v>
+        <v>22.94835</v>
       </c>
       <c r="F59">
-        <v>108.94</v>
+        <v>155.44256</v>
       </c>
       <c r="G59">
-        <v>2361.44</v>
+        <v>2320.62596</v>
       </c>
     </row>
     <row r="60">
@@ -4109,22 +4109,22 @@
         <v>2082</v>
       </c>
       <c r="B60">
-        <v>7.79</v>
+        <v>8.91714</v>
       </c>
       <c r="C60">
-        <v>6.05</v>
+        <v>5.65607</v>
       </c>
       <c r="D60">
-        <v>7.5</v>
+        <v>6.26831</v>
       </c>
       <c r="E60">
-        <v>17.84</v>
+        <v>18.56276</v>
       </c>
       <c r="F60">
-        <v>92.41</v>
+        <v>132.23702</v>
       </c>
       <c r="G60">
-        <v>2388.41</v>
+        <v>2355.3587</v>
       </c>
     </row>
     <row r="61">
@@ -4132,22 +4132,22 @@
         <v>2083</v>
       </c>
       <c r="B61">
-        <v>5.7</v>
+        <v>6.46723</v>
       </c>
       <c r="C61">
-        <v>4.58</v>
+        <v>4.15002</v>
       </c>
       <c r="D61">
-        <v>5.58</v>
+        <v>4.78274</v>
       </c>
       <c r="E61">
-        <v>14.01</v>
+        <v>14.83705</v>
       </c>
       <c r="F61">
-        <v>78</v>
+        <v>111.2915</v>
       </c>
       <c r="G61">
-        <v>2412.13</v>
+        <v>2385.47146</v>
       </c>
     </row>
     <row r="62">
@@ -4155,22 +4155,22 @@
         <v>2084</v>
       </c>
       <c r="B62">
-        <v>4.33</v>
+        <v>4.63299</v>
       </c>
       <c r="C62">
-        <v>3.01</v>
+        <v>3.01486</v>
       </c>
       <c r="D62">
-        <v>4.64</v>
+        <v>3.61517</v>
       </c>
       <c r="E62">
-        <v>11.05</v>
+        <v>11.78075</v>
       </c>
       <c r="F62">
-        <v>65.11</v>
+        <v>92.61537</v>
       </c>
       <c r="G62">
-        <v>2431.86</v>
+        <v>2411.34086</v>
       </c>
     </row>
     <row r="63">
@@ -4178,22 +4178,22 @@
         <v>2085</v>
       </c>
       <c r="B63">
-        <v>3.05</v>
+        <v>3.29035</v>
       </c>
       <c r="C63">
-        <v>2.59</v>
+        <v>2.1722</v>
       </c>
       <c r="D63">
-        <v>3.31</v>
+        <v>2.70799</v>
       </c>
       <c r="E63">
-        <v>9.09</v>
+        <v>9.272830000000001</v>
       </c>
       <c r="F63">
-        <v>53.02</v>
+        <v>76.26564</v>
       </c>
       <c r="G63">
-        <v>2448.94</v>
+        <v>2433.29099</v>
       </c>
     </row>
     <row r="64">
@@ -4201,22 +4201,22 @@
         <v>2086</v>
       </c>
       <c r="B64">
-        <v>2.36</v>
+        <v>2.3182</v>
       </c>
       <c r="C64">
-        <v>1.79</v>
+        <v>1.55545</v>
       </c>
       <c r="D64">
-        <v>2.74</v>
+        <v>2.00915</v>
       </c>
       <c r="E64">
-        <v>6.88</v>
+        <v>7.20882</v>
       </c>
       <c r="F64">
-        <v>43.53</v>
+        <v>62.16609</v>
       </c>
       <c r="G64">
-        <v>2462.7</v>
+        <v>2451.74229</v>
       </c>
     </row>
     <row r="65">
@@ -4224,22 +4224,22 @@
         <v>2087</v>
       </c>
       <c r="B65">
-        <v>1.68</v>
+        <v>1.61795</v>
       </c>
       <c r="C65">
-        <v>1.33</v>
+        <v>1.10558</v>
       </c>
       <c r="D65">
-        <v>1.98</v>
+        <v>1.48825</v>
       </c>
       <c r="E65">
-        <v>5.69</v>
+        <v>5.58819</v>
       </c>
       <c r="F65">
-        <v>35.23</v>
+        <v>50.10992</v>
       </c>
       <c r="G65">
-        <v>2474.09</v>
+        <v>2467.09011</v>
       </c>
     </row>
     <row r="66">
@@ -4247,22 +4247,22 @@
         <v>2088</v>
       </c>
       <c r="B66">
-        <v>1.14</v>
+        <v>1.12236</v>
       </c>
       <c r="C66">
-        <v>0.88</v>
+        <v>0.78399</v>
       </c>
       <c r="D66">
-        <v>1.53</v>
+        <v>1.09234</v>
       </c>
       <c r="E66">
-        <v>4.33</v>
+        <v>4.2899</v>
       </c>
       <c r="F66">
-        <v>28.49</v>
+        <v>39.97072</v>
       </c>
       <c r="G66">
-        <v>2483.63</v>
+        <v>2479.74069</v>
       </c>
     </row>
     <row r="67">
@@ -4270,22 +4270,22 @@
         <v>2089</v>
       </c>
       <c r="B67">
-        <v>0.6899999999999999</v>
+        <v>0.77384</v>
       </c>
       <c r="C67">
-        <v>0.76</v>
+        <v>0.55042</v>
       </c>
       <c r="D67">
-        <v>1.09</v>
+        <v>0.795</v>
       </c>
       <c r="E67">
-        <v>3.36</v>
+        <v>3.27514</v>
       </c>
       <c r="F67">
-        <v>22.25</v>
+        <v>31.56005</v>
       </c>
       <c r="G67">
-        <v>2491.85</v>
+        <v>2490.04555</v>
       </c>
     </row>
     <row r="68">
@@ -4293,22 +4293,22 @@
         <v>2090</v>
       </c>
       <c r="B68">
-        <v>0.48</v>
+        <v>0.53159</v>
       </c>
       <c r="C68">
-        <v>0.51</v>
+        <v>0.38252</v>
       </c>
       <c r="D68">
-        <v>0.8100000000000001</v>
+        <v>0.58064</v>
       </c>
       <c r="E68">
-        <v>2.65</v>
+        <v>2.486</v>
       </c>
       <c r="F68">
-        <v>17.35</v>
+        <v>24.65457</v>
       </c>
       <c r="G68">
-        <v>2498.2</v>
+        <v>2498.36468</v>
       </c>
     </row>
     <row r="69">
@@ -4316,22 +4316,22 @@
         <v>2091</v>
       </c>
       <c r="B69">
-        <v>0.31</v>
+        <v>0.35896</v>
       </c>
       <c r="C69">
-        <v>0.36</v>
+        <v>0.26449</v>
       </c>
       <c r="D69">
-        <v>0.65</v>
+        <v>0.42139</v>
       </c>
       <c r="E69">
-        <v>2.04</v>
+        <v>1.86928</v>
       </c>
       <c r="F69">
-        <v>13.42</v>
+        <v>19.07435</v>
       </c>
       <c r="G69">
-        <v>2503.22</v>
+        <v>2505.01153</v>
       </c>
     </row>
     <row r="70">
@@ -4339,22 +4339,22 @@
         <v>2092</v>
       </c>
       <c r="B70">
-        <v>0.15</v>
+        <v>0.24091</v>
       </c>
       <c r="C70">
-        <v>0.26</v>
+        <v>0.18381</v>
       </c>
       <c r="D70">
-        <v>0.44</v>
+        <v>0.30423</v>
       </c>
       <c r="E70">
-        <v>1.49</v>
+        <v>1.39353</v>
       </c>
       <c r="F70">
-        <v>10.57</v>
+        <v>14.6231</v>
       </c>
       <c r="G70">
-        <v>2507.09</v>
+        <v>2510.25442</v>
       </c>
     </row>
     <row r="71">
@@ -4362,22 +4362,22 @@
         <v>2093</v>
       </c>
       <c r="B71">
-        <v>0.12</v>
+        <v>0.15786</v>
       </c>
       <c r="C71">
-        <v>0.12</v>
+        <v>0.12425</v>
       </c>
       <c r="D71">
-        <v>0.25</v>
+        <v>0.21653</v>
       </c>
       <c r="E71">
-        <v>1.04</v>
+        <v>1.03586</v>
       </c>
       <c r="F71">
-        <v>8.300000000000001</v>
+        <v>11.10479</v>
       </c>
       <c r="G71">
-        <v>2510.17</v>
+        <v>2514.36071</v>
       </c>
     </row>
     <row r="72">
@@ -4385,22 +4385,22 @@
         <v>2094</v>
       </c>
       <c r="B72">
-        <v>0.07000000000000001</v>
+        <v>0.10128</v>
       </c>
       <c r="C72">
-        <v>0.09</v>
+        <v>0.08094</v>
       </c>
       <c r="D72">
-        <v>0.13</v>
+        <v>0.15313</v>
       </c>
       <c r="E72">
-        <v>0.8</v>
+        <v>0.75744</v>
       </c>
       <c r="F72">
-        <v>6.46</v>
+        <v>8.35425</v>
       </c>
       <c r="G72">
-        <v>2512.45</v>
+        <v>2517.55296</v>
       </c>
     </row>
     <row r="73">
@@ -4408,22 +4408,22 @@
         <v>2095</v>
       </c>
       <c r="B73">
-        <v>0.06</v>
+        <v>0.0646</v>
       </c>
       <c r="C73">
-        <v>0.03</v>
+        <v>0.05334</v>
       </c>
       <c r="D73">
-        <v>0.11</v>
+        <v>0.10592</v>
       </c>
       <c r="E73">
-        <v>0.6</v>
+        <v>0.54817</v>
       </c>
       <c r="F73">
-        <v>4.64</v>
+        <v>6.23159</v>
       </c>
       <c r="G73">
-        <v>2514.56</v>
+        <v>2519.99638</v>
       </c>
     </row>
     <row r="74">
@@ -4431,22 +4431,22 @@
         <v>2096</v>
       </c>
       <c r="B74">
-        <v>0.02</v>
+        <v>0.03938</v>
       </c>
       <c r="C74">
-        <v>0.03</v>
+        <v>0.03435</v>
       </c>
       <c r="D74">
-        <v>0.13</v>
+        <v>0.07349</v>
       </c>
       <c r="E74">
-        <v>0.41</v>
+        <v>0.3961</v>
       </c>
       <c r="F74">
-        <v>3.39</v>
+        <v>4.5972</v>
       </c>
       <c r="G74">
-        <v>2516.02</v>
+        <v>2521.85948</v>
       </c>
     </row>
     <row r="75">
@@ -4454,22 +4454,22 @@
         <v>2097</v>
       </c>
       <c r="B75">
-        <v>0.02</v>
+        <v>0.02378</v>
       </c>
       <c r="C75">
-        <v>0.01</v>
+        <v>0.02124</v>
       </c>
       <c r="D75">
-        <v>0.04</v>
+        <v>0.05023</v>
       </c>
       <c r="E75">
-        <v>0.28</v>
+        <v>0.28204</v>
       </c>
       <c r="F75">
-        <v>2.51</v>
+        <v>3.35803</v>
       </c>
       <c r="G75">
-        <v>2517.14</v>
+        <v>2523.26468</v>
       </c>
     </row>
     <row r="76">
@@ -4477,22 +4477,22 @@
         <v>2098</v>
       </c>
       <c r="B76">
-        <v>0.01</v>
+        <v>0.01374</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.01306</v>
       </c>
       <c r="D76">
-        <v>0.02</v>
+        <v>0.03389</v>
       </c>
       <c r="E76">
-        <v>0.25</v>
+        <v>0.19829</v>
       </c>
       <c r="F76">
-        <v>1.82</v>
+        <v>2.43276</v>
       </c>
       <c r="G76">
-        <v>2517.9</v>
+        <v>2524.30826</v>
       </c>
     </row>
     <row r="77">
@@ -4500,22 +4500,22 @@
         <v>2099</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="C77">
-        <v>0.01</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="D77">
-        <v>0.02</v>
+        <v>0.02245</v>
       </c>
       <c r="E77">
-        <v>0.12</v>
+        <v>0.14056</v>
       </c>
       <c r="F77">
-        <v>1.41</v>
+        <v>1.73926</v>
       </c>
       <c r="G77">
-        <v>2518.44</v>
+        <v>2525.08124</v>
       </c>
     </row>
     <row r="78">
@@ -4523,22 +4523,22 @@
         <v>2100</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.00422</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.00547</v>
       </c>
       <c r="D78">
-        <v>0.03</v>
+        <v>0.01519</v>
       </c>
       <c r="E78">
-        <v>0.08</v>
+        <v>0.09668</v>
       </c>
       <c r="F78">
-        <v>1.02</v>
+        <v>1.2333</v>
       </c>
       <c r="G78">
-        <v>2518.87</v>
+        <v>2525.64514</v>
       </c>
     </row>
     <row r="79">
@@ -4546,22 +4546,22 @@
         <v>2101</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.00239</v>
       </c>
       <c r="C79">
-        <v>0.01</v>
+        <v>0.00329</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.00959</v>
       </c>
       <c r="E79">
-        <v>0.04</v>
+        <v>0.06816</v>
       </c>
       <c r="F79">
-        <v>0.76</v>
+        <v>0.86571</v>
       </c>
       <c r="G79">
-        <v>2519.19</v>
+        <v>2526.05086</v>
       </c>
     </row>
     <row r="80">
@@ -4569,22 +4569,22 @@
         <v>2102</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.00139</v>
       </c>
       <c r="C80">
-        <v>0.01</v>
+        <v>0.00194</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.00685</v>
       </c>
       <c r="E80">
-        <v>0.02</v>
+        <v>0.04591</v>
       </c>
       <c r="F80">
-        <v>0.51</v>
+        <v>0.60222</v>
       </c>
       <c r="G80">
-        <v>2519.46</v>
+        <v>2526.34169</v>
       </c>
     </row>
     <row r="81">
@@ -4592,22 +4592,22 @@
         <v>2103</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.00067</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.00129</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.00436</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.03108</v>
       </c>
       <c r="F81">
-        <v>0.33</v>
+        <v>0.4121</v>
       </c>
       <c r="G81">
-        <v>2519.65</v>
+        <v>2526.5505</v>
       </c>
     </row>
     <row r="82">
@@ -4615,22 +4615,22 @@
         <v>2104</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.00079</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00282</v>
       </c>
       <c r="E82">
-        <v>0.01</v>
+        <v>0.0205</v>
       </c>
       <c r="F82">
-        <v>0.23</v>
+        <v>0.27834</v>
       </c>
       <c r="G82">
-        <v>2519.76</v>
+        <v>2526.69717</v>
       </c>
     </row>
     <row r="83">
@@ -4638,22 +4638,22 @@
         <v>2105</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.00052</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.00179</v>
       </c>
       <c r="E83">
-        <v>0.02</v>
+        <v>0.01373</v>
       </c>
       <c r="F83">
-        <v>0.12</v>
+        <v>0.1858</v>
       </c>
       <c r="G83">
-        <v>2519.86</v>
+        <v>2526.79794</v>
       </c>
     </row>
     <row r="84">
@@ -4661,22 +4661,22 @@
         <v>2106</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.00098</v>
       </c>
       <c r="E84">
-        <v>0.01</v>
+        <v>0.008970000000000001</v>
       </c>
       <c r="F84">
-        <v>0.09</v>
+        <v>0.1224</v>
       </c>
       <c r="G84">
-        <v>2519.9</v>
+        <v>2526.86716</v>
       </c>
     </row>
     <row r="85">
@@ -4684,22 +4684,22 @@
         <v>2107</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.0006000000000000001</v>
       </c>
       <c r="E85">
-        <v>0.01</v>
+        <v>0.00561</v>
       </c>
       <c r="F85">
-        <v>0.07000000000000001</v>
+        <v>0.08086</v>
       </c>
       <c r="G85">
-        <v>2519.92</v>
+        <v>2526.91268</v>
       </c>
     </row>
     <row r="86">
@@ -4707,22 +4707,22 @@
         <v>2108</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>4.999999999999999E-05</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
       <c r="E86">
-        <v>0.01</v>
+        <v>0.00375</v>
       </c>
       <c r="F86">
-        <v>0.06</v>
+        <v>0.05297</v>
       </c>
       <c r="G86">
-        <v>2519.93</v>
+        <v>2526.94275</v>
       </c>
     </row>
     <row r="87">
@@ -4730,22 +4730,22 @@
         <v>2109</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="D87">
-        <v>0.01</v>
+        <v>0.00021</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.00231</v>
       </c>
       <c r="F87">
-        <v>0.03</v>
+        <v>0.03437</v>
       </c>
       <c r="G87">
-        <v>2519.96</v>
+        <v>2526.96295</v>
       </c>
     </row>
     <row r="88">
@@ -4753,22 +4753,22 @@
         <v>2110</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="E88">
-        <v>0.01</v>
+        <v>0.00138</v>
       </c>
       <c r="F88">
-        <v>0.02</v>
+        <v>0.02208</v>
       </c>
       <c r="G88">
-        <v>2519.97</v>
+        <v>2526.97638</v>
       </c>
     </row>
     <row r="89">
@@ -4776,22 +4776,22 @@
         <v>2111</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9.999999999999999E-06</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>4.999999999999999E-05</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.00088</v>
       </c>
       <c r="F89">
-        <v>0.01</v>
+        <v>0.01358</v>
       </c>
       <c r="G89">
-        <v>2519.99</v>
+        <v>2526.98544</v>
       </c>
     </row>
     <row r="90">
@@ -4802,19 +4802,19 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>9.999999999999999E-06</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>5.999999999999999E-05</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.00053</v>
       </c>
       <c r="F90">
-        <v>0.01</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="G90">
-        <v>2519.99</v>
+        <v>2526.99121</v>
       </c>
     </row>
     <row r="91">
@@ -4828,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>4.999999999999999E-05</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
       <c r="F91">
-        <v>0.01</v>
+        <v>0.00477</v>
       </c>
       <c r="G91">
-        <v>2519.99</v>
+        <v>2526.99492</v>
       </c>
     </row>
     <row r="92">
@@ -4851,16 +4851,16 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.00016</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="G92">
-        <v>2520</v>
+        <v>2526.9971</v>
       </c>
     </row>
     <row r="93">
@@ -4874,16 +4874,16 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>9.999999999999991E-06</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.00152</v>
       </c>
       <c r="G93">
-        <v>2520</v>
+        <v>2526.99839</v>
       </c>
     </row>
     <row r="94">
@@ -4897,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>9.999999999999991E-06</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>5.999999999999999E-05</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.00073</v>
       </c>
       <c r="G94">
-        <v>2520</v>
+        <v>2526.9992</v>
       </c>
     </row>
     <row r="95">
@@ -4920,16 +4920,16 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>9.999999999999991E-06</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>9.999999999999999E-06</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.0003999999999999999</v>
       </c>
       <c r="G95">
-        <v>2520</v>
+        <v>2526.99958</v>
       </c>
     </row>
     <row r="96">
@@ -4949,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="G96">
-        <v>2520</v>
+        <v>2526.99988</v>
       </c>
     </row>
     <row r="97">
@@ -4969,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>9.999999999999997E-06</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="G97">
-        <v>2520</v>
+        <v>2526.99994</v>
       </c>
     </row>
     <row r="98">
@@ -4992,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>9.999999999999997E-06</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>2520</v>
+        <v>2526.99999</v>
       </c>
     </row>
     <row r="99">
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>2520</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="100">
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>2520</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="101">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2520</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="102">
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>2520</v>
+        <v>2527</v>
       </c>
     </row>
   </sheetData>
@@ -5120,26 +5120,26 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>10148853737.44447</v>
+        <v>9752593345.485704</v>
       </c>
       <c r="B2">
-        <v>1584511346.40824</v>
+        <v>1729932793.120473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>657175583.5453854</v>
+        <v>703556419.1032314</v>
       </c>
       <c r="B3">
-        <v>556807448.0200323</v>
+        <v>649507897.4057807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>40387666.91591512</v>
+        <v>45978299.67649992</v>
       </c>
       <c r="B4">
-        <v>383412159.1160762</v>
+        <v>450408912.8727425</v>
       </c>
     </row>
     <row r="5">
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1986153218.106946</v>
+        <v>1918969536.051116</v>
       </c>
     </row>
     <row r="6">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>5853623430.801315</v>
+        <v>4513762799.8153</v>
       </c>
     </row>
   </sheetData>
@@ -5185,26 +5185,26 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>10121196161.68944</v>
+        <v>10520330155.03959</v>
       </c>
       <c r="B2">
-        <v>1667372796.879113</v>
+        <v>1517796131.851601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>675527514.0505025</v>
+        <v>631002665.6213596</v>
       </c>
       <c r="B3">
-        <v>589746834.3732473</v>
+        <v>501940135.4109535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>42153161.77475481</v>
+        <v>36357780.57158741</v>
       </c>
       <c r="B4">
-        <v>416175626.2894601</v>
+        <v>348047756.6348405</v>
       </c>
     </row>
     <row r="5">
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2047009807.379826</v>
+        <v>2100436841.48676</v>
       </c>
     </row>
     <row r="6">
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>5810092820.347734</v>
+        <v>7132052440.302276</v>
       </c>
     </row>
   </sheetData>
